--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_19_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_19_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2349129.781708776</v>
+        <v>2346094.988572293</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15846980.27652164</v>
+        <v>15846980.27652163</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4984162.060512532</v>
+        <v>4984162.060512529</v>
       </c>
     </row>
     <row r="9">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.04006995424703</v>
+        <v>181.1106848458969</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>35.07173034591849</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>181.1106848458969</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>181.1106848458969</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>18.93777609758677</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>105.5127847687607</v>
       </c>
       <c r="U11" t="n">
-        <v>144.482221258019</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>181.1106848458969</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>181.1106848458969</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.1106848458969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,22 +1448,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>41.6964398697809</v>
+        <v>41.69643986978093</v>
       </c>
       <c r="C12" t="n">
-        <v>40.56575690873788</v>
+        <v>40.56575690873791</v>
       </c>
       <c r="D12" t="n">
-        <v>20.20614647796364</v>
+        <v>20.20614647796367</v>
       </c>
       <c r="E12" t="n">
-        <v>26.50009475345033</v>
+        <v>26.50009475345036</v>
       </c>
       <c r="F12" t="n">
-        <v>14.6055568289287</v>
+        <v>14.60555682892873</v>
       </c>
       <c r="G12" t="n">
-        <v>9.400815815259378</v>
+        <v>9.400815815259413</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>8.719342990957022</v>
+        <v>8.719342990957184</v>
       </c>
       <c r="T12" t="n">
-        <v>63.0992423792429</v>
+        <v>63.09924237924292</v>
       </c>
       <c r="U12" t="n">
-        <v>99.32291798329349</v>
+        <v>99.32291798329315</v>
       </c>
       <c r="V12" t="n">
         <v>111.7326703858728</v>
@@ -1514,10 +1514,10 @@
         <v>119.2341421812752</v>
       </c>
       <c r="X12" t="n">
-        <v>78.83207564671764</v>
+        <v>78.83207564671767</v>
       </c>
       <c r="Y12" t="n">
-        <v>68.93914352847702</v>
+        <v>68.93914352847705</v>
       </c>
     </row>
     <row r="13">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.77400727761744</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>59.92113552789985</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>45.49485073973958</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>45.42129279261869</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>47.17074421238596</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.2547768600033</v>
+        <v>57.25477686000333</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>38.808747403807</v>
       </c>
       <c r="I13" t="n">
-        <v>1.08395125565832</v>
+        <v>1.083951255658345</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>79.40033982756646</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>121.6403075490033</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>173.9623923260323</v>
       </c>
       <c r="V13" t="n">
         <v>154.7376205006132</v>
       </c>
       <c r="W13" t="n">
-        <v>104.6969572386682</v>
+        <v>75.96621002727279</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>112.2990093447522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>54.00950644350524</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
         <v>181.1106848458969</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>181.1106848458969</v>
       </c>
       <c r="G14" t="n">
-        <v>71.7001939337965</v>
+        <v>181.1106848458969</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>18.93777609758675</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>105.5127847687607</v>
       </c>
       <c r="U14" t="n">
-        <v>144.482221258019</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>181.1106848458969</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>41.6964398697809</v>
+        <v>41.69643986978096</v>
       </c>
       <c r="C15" t="n">
-        <v>40.56575690873788</v>
+        <v>40.56575690873794</v>
       </c>
       <c r="D15" t="n">
-        <v>20.20614647796369</v>
+        <v>20.2061464779637</v>
       </c>
       <c r="E15" t="n">
-        <v>26.50009475345033</v>
+        <v>26.50009475344963</v>
       </c>
       <c r="F15" t="n">
-        <v>14.6055568289287</v>
+        <v>14.60555682892875</v>
       </c>
       <c r="G15" t="n">
-        <v>9.400815815259385</v>
+        <v>9.400815815259442</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>8.719342990957159</v>
+        <v>8.719342990957212</v>
       </c>
       <c r="T15" t="n">
-        <v>63.0992423792429</v>
+        <v>63.09924237924294</v>
       </c>
       <c r="U15" t="n">
-        <v>99.32291798329325</v>
+        <v>99.32291798329331</v>
       </c>
       <c r="V15" t="n">
-        <v>111.7326703858728</v>
+        <v>111.7326703858729</v>
       </c>
       <c r="W15" t="n">
         <v>119.2341421812752</v>
       </c>
       <c r="X15" t="n">
-        <v>78.83207564671764</v>
+        <v>78.8320756467177</v>
       </c>
       <c r="Y15" t="n">
-        <v>68.93914352847702</v>
+        <v>68.93914352847708</v>
       </c>
     </row>
     <row r="16">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.77400727761744</v>
+        <v>74.7740072776175</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>45.49485073973963</v>
       </c>
       <c r="E16" t="n">
-        <v>45.42129279261869</v>
+        <v>45.42129279261874</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>47.17074421238601</v>
       </c>
       <c r="G16" t="n">
-        <v>57.2547768600033</v>
+        <v>13.60350757873146</v>
       </c>
       <c r="H16" t="n">
-        <v>38.80874740380698</v>
+        <v>38.80874740380703</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.083951255658373</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>79.40033982756648</v>
       </c>
       <c r="T16" t="n">
         <v>121.6403075490033</v>
       </c>
       <c r="U16" t="n">
-        <v>173.9623923260322</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>78.69381219612264</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>123.157587768076</v>
       </c>
       <c r="Y16" t="n">
-        <v>112.2990093447522</v>
+        <v>112.2990093447523</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="D17" t="n">
-        <v>197.0462573554775</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>86.98333480753057</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>176.5460924773602</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>86.57500867117393</v>
+        <v>86.57500867117395</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>125.5444451604323</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>178.9853118806938</v>
       </c>
       <c r="W17" t="n">
-        <v>197.0462573554775</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>197.0462573554775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>150.2783710965517</v>
+        <v>22.75866377219417</v>
       </c>
       <c r="C18" t="n">
-        <v>21.62798081115113</v>
+        <v>21.62798081115115</v>
       </c>
       <c r="D18" t="n">
-        <v>1.268370380376894</v>
+        <v>1.268370380376908</v>
       </c>
       <c r="E18" t="n">
-        <v>7.562318655863578</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.71657991939885</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>33.23905102613582</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>44.16146628165615</v>
       </c>
       <c r="U18" t="n">
-        <v>80.3851418857065</v>
+        <v>90.57539372378636</v>
       </c>
       <c r="V18" t="n">
-        <v>92.79489428828606</v>
+        <v>92.79489428828607</v>
       </c>
       <c r="W18" t="n">
-        <v>100.2963660836884</v>
+        <v>100.2963660836885</v>
       </c>
       <c r="X18" t="n">
-        <v>59.89429954913089</v>
+        <v>59.89429954913091</v>
       </c>
       <c r="Y18" t="n">
-        <v>50.00136743089027</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="19">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>55.83623118003071</v>
       </c>
       <c r="C19" t="n">
-        <v>40.9833594303131</v>
+        <v>40.98335943031312</v>
       </c>
       <c r="D19" t="n">
-        <v>26.55707464215283</v>
+        <v>26.55707464215284</v>
       </c>
       <c r="E19" t="n">
-        <v>26.48351669503194</v>
+        <v>26.48351669503195</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>28.23296811479922</v>
       </c>
       <c r="G19" t="n">
-        <v>38.31700076241655</v>
+        <v>38.31700076241656</v>
       </c>
       <c r="H19" t="n">
-        <v>19.87097130622023</v>
+        <v>19.87097130622024</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>60.4625637299797</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>102.7025314514165</v>
       </c>
       <c r="U19" t="n">
-        <v>155.0246162284455</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>135.7998444030264</v>
       </c>
       <c r="W19" t="n">
-        <v>124.0796871598757</v>
+        <v>31.87000891209592</v>
       </c>
       <c r="X19" t="n">
         <v>104.2198116704892</v>
       </c>
       <c r="Y19" t="n">
-        <v>93.3612332471655</v>
+        <v>93.36123324716552</v>
       </c>
     </row>
     <row r="20">
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>197.0462573554775</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>197.0462573554775</v>
+        <v>173.5583434787048</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="X20" t="n">
-        <v>197.0462573554775</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.5583434787045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,25 +2159,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.75866377219415</v>
+        <v>22.75866377219417</v>
       </c>
       <c r="C21" t="n">
-        <v>21.62798081115113</v>
+        <v>21.62798081115115</v>
       </c>
       <c r="D21" t="n">
-        <v>1.268370380376894</v>
+        <v>1.268370380376908</v>
       </c>
       <c r="E21" t="n">
-        <v>56.22454380229821</v>
+        <v>7.562318655863592</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>117.9827470420302</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>43.45748413276626</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>44.16146628165615</v>
       </c>
       <c r="U21" t="n">
-        <v>80.3851418857065</v>
+        <v>80.38514188570652</v>
       </c>
       <c r="V21" t="n">
-        <v>92.79489428828606</v>
+        <v>92.79489428828607</v>
       </c>
       <c r="W21" t="n">
-        <v>100.2963660836884</v>
+        <v>100.2963660836885</v>
       </c>
       <c r="X21" t="n">
-        <v>59.89429954913089</v>
+        <v>59.89429954913091</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.00136743089027</v>
+        <v>50.00136743089028</v>
       </c>
     </row>
     <row r="22">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.83623118003069</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>26.55707464215283</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>26.48351669503194</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>28.23296811479921</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>19.87097130622023</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>60.46256372997968</v>
+        <v>60.4625637299797</v>
       </c>
       <c r="T22" t="n">
         <v>102.7025314514165</v>
@@ -2298,16 +2298,16 @@
         <v>155.0246162284455</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>135.7998444030264</v>
       </c>
       <c r="W22" t="n">
         <v>152.9773907237766</v>
       </c>
       <c r="X22" t="n">
-        <v>43.18801822611823</v>
+        <v>104.2198116704892</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.3612332471655</v>
+        <v>53.51035733800401</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>268.9700909299253</v>
+        <v>125.0135558021303</v>
       </c>
       <c r="C23" t="n">
         <v>261.7240391577411</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>254.0670101711414</v>
       </c>
       <c r="E23" t="n">
         <v>271.0379823102633</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>86.57500867117393</v>
+        <v>86.57500867117395</v>
       </c>
       <c r="U23" t="n">
-        <v>125.5444451604322</v>
+        <v>125.5444451604323</v>
       </c>
       <c r="V23" t="n">
-        <v>110.1104750433465</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55.83623118003069</v>
+        <v>55.83623118003071</v>
       </c>
       <c r="C25" t="n">
-        <v>40.9833594303131</v>
+        <v>40.98335943031312</v>
       </c>
       <c r="D25" t="n">
-        <v>26.55707464215283</v>
+        <v>26.55707464215284</v>
       </c>
       <c r="E25" t="n">
-        <v>26.48351669503194</v>
+        <v>26.48351669503195</v>
       </c>
       <c r="F25" t="n">
-        <v>28.23296811479921</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>38.31700076241655</v>
+        <v>165.8367080867741</v>
       </c>
       <c r="H25" t="n">
-        <v>19.87097130622023</v>
+        <v>147.3906786305778</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>26.01149482042158</v>
       </c>
       <c r="S25" t="n">
-        <v>187.9822710543372</v>
+        <v>60.4625637299797</v>
       </c>
       <c r="T25" t="n">
-        <v>102.7025314514165</v>
+        <v>230.2222387757741</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5443235528031</v>
+        <v>155.0246162284455</v>
       </c>
       <c r="V25" t="n">
         <v>135.7998444030264</v>
@@ -2541,10 +2541,10 @@
         <v>152.9773907237766</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>104.2198116704892</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>93.36123324716552</v>
       </c>
     </row>
     <row r="26">
@@ -2554,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>335.7337026867568</v>
       </c>
       <c r="C26" t="n">
-        <v>328.4876509145726</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>320.8306219279728</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>337.8015940670948</v>
@@ -2569,7 +2569,7 @@
         <v>351.9693985177959</v>
       </c>
       <c r="G26" t="n">
-        <v>346.6369100773813</v>
+        <v>346.6369100773814</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.249376839731417</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>192.3080569172637</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>183.3722974917051</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>324.8019834487476</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>331.7697064210788</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.5998429368621</v>
+        <v>122.5998429368622</v>
       </c>
       <c r="C28" t="n">
         <v>107.7469711871446</v>
       </c>
       <c r="D28" t="n">
-        <v>93.32068639898428</v>
+        <v>93.32068639898432</v>
       </c>
       <c r="E28" t="n">
-        <v>93.24712845186339</v>
+        <v>93.24712845186343</v>
       </c>
       <c r="F28" t="n">
-        <v>94.99657987163066</v>
+        <v>94.9965798716307</v>
       </c>
       <c r="G28" t="n">
         <v>105.080612519248</v>
       </c>
       <c r="H28" t="n">
-        <v>86.63458306305169</v>
+        <v>86.63458306305175</v>
       </c>
       <c r="I28" t="n">
-        <v>48.90978691490302</v>
+        <v>48.90978691490307</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.86636673316706</v>
+        <v>28.8663667331671</v>
       </c>
       <c r="S28" t="n">
-        <v>127.2261754868113</v>
+        <v>127.2261754868112</v>
       </c>
       <c r="T28" t="n">
         <v>169.466143208248</v>
       </c>
       <c r="U28" t="n">
-        <v>221.788227985277</v>
+        <v>221.7882279852768</v>
       </c>
       <c r="V28" t="n">
         <v>202.5634561598579</v>
       </c>
       <c r="W28" t="n">
-        <v>219.741002480608</v>
+        <v>219.7410024806081</v>
       </c>
       <c r="X28" t="n">
         <v>170.9834234273206</v>
       </c>
       <c r="Y28" t="n">
-        <v>160.1248450039969</v>
+        <v>160.124845003997</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>156.2860735902883</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>243.3097042341917</v>
       </c>
       <c r="I29" t="n">
-        <v>13.04393973873398</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>66.76361175683147</v>
       </c>
       <c r="T29" t="n">
-        <v>153.3386204280054</v>
+        <v>63.59696508293263</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>192.3080569172637</v>
       </c>
       <c r="V29" t="n">
         <v>277.9296456359907</v>
@@ -2967,10 +2967,10 @@
         <v>105.080612519248</v>
       </c>
       <c r="H31" t="n">
-        <v>86.63458306305169</v>
+        <v>86.63458306305171</v>
       </c>
       <c r="I31" t="n">
-        <v>48.90978691490304</v>
+        <v>48.90978691490303</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.86636673316707</v>
+        <v>28.86636673316706</v>
       </c>
       <c r="S31" t="n">
         <v>127.2261754868111</v>
@@ -3034,19 +3034,19 @@
         <v>294.1411030388924</v>
       </c>
       <c r="D32" t="n">
-        <v>286.4840740522926</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>303.4550461914146</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>317.6228506421157</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>312.2903622017012</v>
       </c>
       <c r="H32" t="n">
-        <v>208.9631563585115</v>
+        <v>62.89341782574304</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>30.96386531198057</v>
+        <v>32.41706388115126</v>
       </c>
       <c r="T32" t="n">
-        <v>118.9920725523252</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>157.9615090415835</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>243.5830977603105</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>272.1864012381891</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>290.4554355730674</v>
       </c>
       <c r="Y32" t="n">
         <v>297.4231585453986</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>160.5678183536424</v>
+        <v>92.87962761113094</v>
       </c>
       <c r="T34" t="n">
         <v>135.1195953325678</v>
@@ -3255,7 +3255,7 @@
         <v>136.6368755516404</v>
       </c>
       <c r="Y34" t="n">
-        <v>125.7782971283168</v>
+        <v>193.4664878708281</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>301.3871548110766</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>294.1411030388924</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>312.2903622017012</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>132.3806398333414</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>118.9920725523252</v>
       </c>
       <c r="U35" t="n">
-        <v>136.0663072991667</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>290.4554355730674</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>33.68543426152816</v>
       </c>
       <c r="E36" t="n">
-        <v>39.97938253701484</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
         <v>123.1874880556995</v>
@@ -3362,10 +3362,10 @@
         <v>22.8801035988239</v>
       </c>
       <c r="H36" t="n">
-        <v>78.94956109318385</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>18.71657991939885</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>117.301274217728</v>
       </c>
       <c r="T36" t="n">
-        <v>76.57853016280741</v>
+        <v>171.6811736060137</v>
       </c>
       <c r="U36" t="n">
-        <v>170.7690075625523</v>
+        <v>207.9048492100641</v>
       </c>
       <c r="V36" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>132.7134299648397</v>
+        <v>193.2437293299101</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>92.31136343028216</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>82.41843131204153</v>
       </c>
     </row>
     <row r="37">
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.87962761113094</v>
+        <v>92.87962761113103</v>
       </c>
       <c r="T37" t="n">
-        <v>135.1195953325677</v>
+        <v>135.1195953325678</v>
       </c>
       <c r="U37" t="n">
-        <v>187.4416801095965</v>
+        <v>187.4416801095963</v>
       </c>
       <c r="V37" t="n">
         <v>168.2169082841777</v>
@@ -3511,13 +3511,13 @@
         <v>286.4840740522926</v>
       </c>
       <c r="E38" t="n">
-        <v>167.4834126888427</v>
+        <v>303.4550461914146</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>317.6228506421157</v>
       </c>
       <c r="G38" t="n">
-        <v>312.2903622017012</v>
+        <v>17.07273746282224</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>32.41706388115126</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>118.9920725523252</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>290.4554355730674</v>
       </c>
       <c r="Y38" t="n">
-        <v>297.4231585453986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3587,19 +3587,19 @@
         <v>54.0450446923024</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>33.68543426152816</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>39.97938253701484</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>69.89856405816563</v>
       </c>
       <c r="G39" t="n">
-        <v>22.8801035988239</v>
+        <v>117.9827470420302</v>
       </c>
       <c r="H39" t="n">
-        <v>78.94956109318385</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>18.71657991939885</v>
@@ -3635,22 +3635,22 @@
         <v>117.301274217728</v>
       </c>
       <c r="T39" t="n">
-        <v>76.57853016280741</v>
+        <v>171.6811736060137</v>
       </c>
       <c r="U39" t="n">
-        <v>112.8022057668578</v>
+        <v>207.9048492100641</v>
       </c>
       <c r="V39" t="n">
-        <v>183.1787599651317</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>132.7134299648397</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>92.31136343028216</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>82.41843131204153</v>
       </c>
     </row>
     <row r="40">
@@ -3717,10 +3717,10 @@
         <v>135.1195953325678</v>
       </c>
       <c r="U40" t="n">
-        <v>187.4416801095967</v>
+        <v>187.441680109597</v>
       </c>
       <c r="V40" t="n">
-        <v>168.2169082841774</v>
+        <v>168.2169082841777</v>
       </c>
       <c r="W40" t="n">
         <v>185.3944546049278</v>
@@ -3742,25 +3742,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>335.9594225088317</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>345.2733656613539</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>359.441170112055</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>250.7814758284508</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>20.51571133299309</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>74.23538335109058</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>160.8103920222645</v>
       </c>
       <c r="U41" t="n">
-        <v>121.3131016529333</v>
+        <v>199.7798285115228</v>
       </c>
       <c r="V41" t="n">
-        <v>285.4014172302498</v>
+        <v>94.98721036796647</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>314.0047207081284</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>332.2737550430068</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>96.99404712328477</v>
+        <v>96.99404712328473</v>
       </c>
       <c r="C42" t="n">
-        <v>95.86336416224175</v>
+        <v>95.86336416224171</v>
       </c>
       <c r="D42" t="n">
-        <v>75.50375373146751</v>
+        <v>75.50375373146747</v>
       </c>
       <c r="E42" t="n">
-        <v>81.7977020069542</v>
+        <v>81.79770200695415</v>
       </c>
       <c r="F42" t="n">
-        <v>69.9031640824323</v>
+        <v>69.90316408243253</v>
       </c>
       <c r="G42" t="n">
-        <v>64.69842306876325</v>
+        <v>64.6984230687632</v>
       </c>
       <c r="H42" t="n">
-        <v>25.66523711991689</v>
+        <v>25.66523711991685</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,16 +3869,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>64.01695024446103</v>
+        <v>64.01695024446099</v>
       </c>
       <c r="T42" t="n">
-        <v>118.3968496327468</v>
+        <v>118.3968496327469</v>
       </c>
       <c r="U42" t="n">
-        <v>154.6205252367971</v>
+        <v>154.620525236797</v>
       </c>
       <c r="V42" t="n">
-        <v>167.0302776393767</v>
+        <v>167.0302776393766</v>
       </c>
       <c r="W42" t="n">
         <v>174.531749434779</v>
@@ -3887,7 +3887,7 @@
         <v>134.1296829002215</v>
       </c>
       <c r="Y42" t="n">
-        <v>124.2367507819809</v>
+        <v>124.2367507819808</v>
       </c>
     </row>
     <row r="43">
@@ -3906,19 +3906,19 @@
         <v>100.7924579932434</v>
       </c>
       <c r="E43" t="n">
-        <v>100.7189000461226</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>102.4683514658898</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>112.5523841135072</v>
+        <v>112.5523841135071</v>
       </c>
       <c r="H43" t="n">
-        <v>94.10635465731085</v>
+        <v>94.1063546573108</v>
       </c>
       <c r="I43" t="n">
-        <v>56.38155850916219</v>
+        <v>56.38155850916215</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>36.33813832742622</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>134.6979470810703</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>171.7573631711551</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>229.2599995795361</v>
       </c>
       <c r="V43" t="n">
         <v>210.035227754117</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.79402583018193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>129.8816063430413</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>320.3617640152998</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.441170112055</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>354.1086816716405</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>74.2353833510906</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>160.8103920222645</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>199.7798285115228</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>285.4014172302498</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>332.2737550430068</v>
       </c>
       <c r="Y44" t="n">
         <v>339.2414780153379</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>96.99404712328477</v>
+        <v>96.99404712328473</v>
       </c>
       <c r="C45" t="n">
-        <v>95.86336416224175</v>
+        <v>95.86336416224171</v>
       </c>
       <c r="D45" t="n">
-        <v>75.50375373146751</v>
+        <v>75.50375373146747</v>
       </c>
       <c r="E45" t="n">
-        <v>81.7977020069542</v>
+        <v>81.79770200695415</v>
       </c>
       <c r="F45" t="n">
-        <v>69.90316408243257</v>
+        <v>69.90316408243253</v>
       </c>
       <c r="G45" t="n">
-        <v>64.69842306876325</v>
+        <v>64.6984230687632</v>
       </c>
       <c r="H45" t="n">
-        <v>25.66523711991689</v>
+        <v>25.66523711991685</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>64.01695024446103</v>
+        <v>64.01695024446099</v>
       </c>
       <c r="T45" t="n">
         <v>118.3968496327469</v>
@@ -4115,7 +4115,7 @@
         <v>154.6205252367966</v>
       </c>
       <c r="V45" t="n">
-        <v>167.0302776393767</v>
+        <v>167.0302776393766</v>
       </c>
       <c r="W45" t="n">
         <v>174.531749434779</v>
@@ -4124,7 +4124,7 @@
         <v>134.1296829002215</v>
       </c>
       <c r="Y45" t="n">
-        <v>124.2367507819809</v>
+        <v>124.2367507819808</v>
       </c>
     </row>
     <row r="46">
@@ -4137,25 +4137,25 @@
         <v>130.0716145311213</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>115.2187427814037</v>
       </c>
       <c r="D46" t="n">
         <v>100.7924579932434</v>
       </c>
       <c r="E46" t="n">
-        <v>100.7189000461226</v>
+        <v>100.7189000461225</v>
       </c>
       <c r="F46" t="n">
-        <v>102.4683514658898</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>112.5523841135071</v>
       </c>
       <c r="H46" t="n">
-        <v>2.089750476971499</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>56.38155850916219</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>36.33813832742622</v>
+        <v>36.33813832742618</v>
       </c>
       <c r="S46" t="n">
         <v>134.6979470810703</v>
       </c>
       <c r="T46" t="n">
-        <v>176.9379148025072</v>
+        <v>112.1536738642884</v>
       </c>
       <c r="U46" t="n">
-        <v>229.2599995795361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>210.035227754117</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>227.2127740748672</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.48885478767176</v>
+        <v>415.7950164419266</v>
       </c>
       <c r="C11" t="n">
-        <v>14.48885478767176</v>
+        <v>380.3690261935241</v>
       </c>
       <c r="D11" t="n">
-        <v>14.48885478767176</v>
+        <v>197.4289404905979</v>
       </c>
       <c r="E11" t="n">
-        <v>14.48885478767176</v>
+        <v>14.48885478767175</v>
       </c>
       <c r="F11" t="n">
-        <v>14.48885478767176</v>
+        <v>14.48885478767175</v>
       </c>
       <c r="G11" t="n">
-        <v>14.48885478767176</v>
+        <v>14.48885478767175</v>
       </c>
       <c r="H11" t="n">
-        <v>14.48885478767176</v>
+        <v>14.48885478767175</v>
       </c>
       <c r="I11" t="n">
-        <v>14.48885478767176</v>
+        <v>14.48885478767175</v>
       </c>
       <c r="J11" t="n">
-        <v>35.62906296450581</v>
+        <v>35.62906296450545</v>
       </c>
       <c r="K11" t="n">
-        <v>100.2927918478248</v>
+        <v>100.2927918478244</v>
       </c>
       <c r="L11" t="n">
-        <v>204.5000106932857</v>
+        <v>204.5000106932853</v>
       </c>
       <c r="M11" t="n">
-        <v>341.035754579014</v>
+        <v>341.0357545790137</v>
       </c>
       <c r="N11" t="n">
-        <v>482.7797649907803</v>
+        <v>482.77976499078</v>
       </c>
       <c r="O11" t="n">
-        <v>607.9566948248482</v>
+        <v>607.956694824848</v>
       </c>
       <c r="P11" t="n">
-        <v>692.366657809279</v>
+        <v>692.3666578092788</v>
       </c>
       <c r="Q11" t="n">
-        <v>724.4427393835878</v>
+        <v>724.4427393835877</v>
       </c>
       <c r="R11" t="n">
-        <v>724.4427393835878</v>
+        <v>724.4427393835877</v>
       </c>
       <c r="S11" t="n">
-        <v>724.4427393835878</v>
+        <v>705.3136726183485</v>
       </c>
       <c r="T11" t="n">
-        <v>724.4427393835878</v>
+        <v>598.7351021448528</v>
       </c>
       <c r="U11" t="n">
-        <v>578.5011017492252</v>
+        <v>598.7351021448528</v>
       </c>
       <c r="V11" t="n">
-        <v>395.561016046299</v>
+        <v>598.7351021448528</v>
       </c>
       <c r="W11" t="n">
-        <v>212.6209303433727</v>
+        <v>598.7351021448528</v>
       </c>
       <c r="X11" t="n">
-        <v>212.6209303433727</v>
+        <v>598.7351021448528</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.68084464044654</v>
+        <v>598.7351021448528</v>
       </c>
     </row>
     <row r="12">
@@ -5099,70 +5099,70 @@
         <v>126.8912495193283</v>
       </c>
       <c r="C12" t="n">
-        <v>85.91573749030009</v>
+        <v>85.9157374903001</v>
       </c>
       <c r="D12" t="n">
-        <v>65.50548852266004</v>
+        <v>65.50548852266013</v>
       </c>
       <c r="E12" t="n">
-        <v>38.73771604442737</v>
+        <v>38.73771604442743</v>
       </c>
       <c r="F12" t="n">
-        <v>23.9846283384388</v>
+        <v>23.98462833843871</v>
       </c>
       <c r="G12" t="n">
-        <v>14.48885478767176</v>
+        <v>14.48885478767175</v>
       </c>
       <c r="H12" t="n">
-        <v>14.48885478767176</v>
+        <v>14.48885478767175</v>
       </c>
       <c r="I12" t="n">
-        <v>14.48885478767176</v>
+        <v>14.48885478767175</v>
       </c>
       <c r="J12" t="n">
-        <v>14.84821743082421</v>
+        <v>14.84821743082422</v>
       </c>
       <c r="K12" t="n">
-        <v>66.26306149761237</v>
+        <v>66.26306149761241</v>
       </c>
       <c r="L12" t="n">
-        <v>165.5063160821087</v>
+        <v>165.5063160821088</v>
       </c>
       <c r="M12" t="n">
-        <v>330.2885165902742</v>
+        <v>293.9004774922816</v>
       </c>
       <c r="N12" t="n">
-        <v>509.5880945877122</v>
+        <v>435.0584695014664</v>
       </c>
       <c r="O12" t="n">
-        <v>624.277212944776</v>
+        <v>614.3580474989044</v>
       </c>
       <c r="P12" t="n">
-        <v>703.7588485394709</v>
+        <v>703.7588485394708</v>
       </c>
       <c r="Q12" t="n">
-        <v>724.4427393835878</v>
+        <v>724.4427393835877</v>
       </c>
       <c r="R12" t="n">
-        <v>724.4427393835878</v>
+        <v>724.4427393835877</v>
       </c>
       <c r="S12" t="n">
-        <v>715.6353222210049</v>
+        <v>715.6353222210047</v>
       </c>
       <c r="T12" t="n">
-        <v>651.8987137571232</v>
+        <v>651.898713757123</v>
       </c>
       <c r="U12" t="n">
-        <v>551.5725339760187</v>
+        <v>551.5725339760188</v>
       </c>
       <c r="V12" t="n">
-        <v>438.7112507579653</v>
+        <v>438.7112507579654</v>
       </c>
       <c r="W12" t="n">
-        <v>318.2727233021318</v>
+        <v>318.2727233021319</v>
       </c>
       <c r="X12" t="n">
-        <v>238.6443640630231</v>
+        <v>238.6443640630233</v>
       </c>
       <c r="Y12" t="n">
         <v>169.00886554941</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>273.4249673011118</v>
+        <v>112.6176179386502</v>
       </c>
       <c r="C13" t="n">
-        <v>212.8985677779807</v>
+        <v>112.6176179386502</v>
       </c>
       <c r="D13" t="n">
-        <v>166.9441730913751</v>
+        <v>112.6176179386502</v>
       </c>
       <c r="E13" t="n">
-        <v>121.0640793614572</v>
+        <v>112.6176179386502</v>
       </c>
       <c r="F13" t="n">
-        <v>73.41686298530976</v>
+        <v>112.6176179386502</v>
       </c>
       <c r="G13" t="n">
-        <v>15.58375504591248</v>
+        <v>54.78450999925291</v>
       </c>
       <c r="H13" t="n">
-        <v>15.58375504591248</v>
+        <v>15.58375504591251</v>
       </c>
       <c r="I13" t="n">
-        <v>14.48885478767176</v>
+        <v>14.48885478767175</v>
       </c>
       <c r="J13" t="n">
-        <v>36.14633778754627</v>
+        <v>14.48885478767175</v>
       </c>
       <c r="K13" t="n">
-        <v>37.64360885940328</v>
+        <v>15.98612585952877</v>
       </c>
       <c r="L13" t="n">
-        <v>216.9431868568413</v>
+        <v>186.5440053912738</v>
       </c>
       <c r="M13" t="n">
-        <v>396.2427648542792</v>
+        <v>365.8435833887117</v>
       </c>
       <c r="N13" t="n">
-        <v>425.3979117034584</v>
+        <v>545.1431613861497</v>
       </c>
       <c r="O13" t="n">
-        <v>480.8063425425433</v>
+        <v>724.4427393835877</v>
       </c>
       <c r="P13" t="n">
-        <v>660.1059205399813</v>
+        <v>724.4427393835877</v>
       </c>
       <c r="Q13" t="n">
-        <v>724.4427393835878</v>
+        <v>724.4427393835877</v>
       </c>
       <c r="R13" t="n">
-        <v>724.4427393835878</v>
+        <v>724.4427393835877</v>
       </c>
       <c r="S13" t="n">
-        <v>724.4427393835878</v>
+        <v>644.2403759213993</v>
       </c>
       <c r="T13" t="n">
-        <v>724.4427393835878</v>
+        <v>521.3713783971535</v>
       </c>
       <c r="U13" t="n">
-        <v>724.4427393835878</v>
+        <v>345.6517901890401</v>
       </c>
       <c r="V13" t="n">
-        <v>568.1421126152916</v>
+        <v>189.3511634207439</v>
       </c>
       <c r="W13" t="n">
-        <v>462.3876103540105</v>
+        <v>112.6176179386502</v>
       </c>
       <c r="X13" t="n">
-        <v>462.3876103540105</v>
+        <v>112.6176179386502</v>
       </c>
       <c r="Y13" t="n">
-        <v>348.9542675815335</v>
+        <v>112.6176179386502</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.91329310463792</v>
+        <v>563.3091118964504</v>
       </c>
       <c r="C14" t="n">
-        <v>86.91329310463792</v>
+        <v>563.3091118964504</v>
       </c>
       <c r="D14" t="n">
-        <v>86.91329310463792</v>
+        <v>563.3091118964504</v>
       </c>
       <c r="E14" t="n">
-        <v>86.91329310463792</v>
+        <v>380.3690261935242</v>
       </c>
       <c r="F14" t="n">
-        <v>86.91329310463792</v>
+        <v>197.428940490598</v>
       </c>
       <c r="G14" t="n">
         <v>14.48885478767176</v>
@@ -5278,13 +5278,13 @@
         <v>14.48885478767176</v>
       </c>
       <c r="J14" t="n">
-        <v>35.62906296450593</v>
+        <v>35.62906296450564</v>
       </c>
       <c r="K14" t="n">
-        <v>100.2927918478249</v>
+        <v>100.2927918478246</v>
       </c>
       <c r="L14" t="n">
-        <v>204.5000106932858</v>
+        <v>204.5000106932857</v>
       </c>
       <c r="M14" t="n">
         <v>341.0357545790141</v>
@@ -5293,10 +5293,10 @@
         <v>482.7797649907804</v>
       </c>
       <c r="O14" t="n">
-        <v>607.9566948248483</v>
+        <v>607.9566948248481</v>
       </c>
       <c r="P14" t="n">
-        <v>692.366657809279</v>
+        <v>692.3666578092789</v>
       </c>
       <c r="Q14" t="n">
         <v>724.4427393835878</v>
@@ -5305,25 +5305,25 @@
         <v>724.4427393835878</v>
       </c>
       <c r="S14" t="n">
-        <v>705.3136726183486</v>
+        <v>724.4427393835878</v>
       </c>
       <c r="T14" t="n">
-        <v>598.7351021448529</v>
+        <v>617.8641689100921</v>
       </c>
       <c r="U14" t="n">
-        <v>452.7934645104903</v>
+        <v>617.8641689100921</v>
       </c>
       <c r="V14" t="n">
-        <v>269.8533788075641</v>
+        <v>617.8641689100921</v>
       </c>
       <c r="W14" t="n">
-        <v>269.8533788075641</v>
+        <v>617.8641689100921</v>
       </c>
       <c r="X14" t="n">
-        <v>269.8533788075641</v>
+        <v>617.8641689100921</v>
       </c>
       <c r="Y14" t="n">
-        <v>269.8533788075641</v>
+        <v>617.8641689100921</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>126.8912495193283</v>
+        <v>126.8912495193278</v>
       </c>
       <c r="C15" t="n">
-        <v>85.91573749030013</v>
+        <v>85.91573749029956</v>
       </c>
       <c r="D15" t="n">
-        <v>65.50548852266004</v>
+        <v>65.50548852265946</v>
       </c>
       <c r="E15" t="n">
-        <v>38.73771604442739</v>
+        <v>38.73771604442751</v>
       </c>
       <c r="F15" t="n">
-        <v>23.98462833843881</v>
+        <v>23.98462833843887</v>
       </c>
       <c r="G15" t="n">
         <v>14.48885478767176</v>
@@ -5357,16 +5357,16 @@
         <v>14.48885478767176</v>
       </c>
       <c r="J15" t="n">
-        <v>14.84821743082421</v>
+        <v>89.37784251706998</v>
       </c>
       <c r="K15" t="n">
-        <v>140.7926865838583</v>
+        <v>140.7926865838582</v>
       </c>
       <c r="L15" t="n">
-        <v>240.0359411683547</v>
+        <v>240.0359411683546</v>
       </c>
       <c r="M15" t="n">
-        <v>368.4301025785274</v>
+        <v>368.4301025785273</v>
       </c>
       <c r="N15" t="n">
         <v>509.5880945877122</v>
@@ -5384,25 +5384,25 @@
         <v>724.4427393835878</v>
       </c>
       <c r="S15" t="n">
-        <v>715.6353222210048</v>
+        <v>715.6353222210047</v>
       </c>
       <c r="T15" t="n">
-        <v>651.8987137571231</v>
+        <v>651.8987137571229</v>
       </c>
       <c r="U15" t="n">
-        <v>551.5725339760188</v>
+        <v>551.5725339760186</v>
       </c>
       <c r="V15" t="n">
-        <v>438.7112507579654</v>
+        <v>438.7112507579652</v>
       </c>
       <c r="W15" t="n">
-        <v>318.2727233021319</v>
+        <v>318.2727233021316</v>
       </c>
       <c r="X15" t="n">
-        <v>238.6443640630232</v>
+        <v>238.6443640630228</v>
       </c>
       <c r="Y15" t="n">
-        <v>169.00886554941</v>
+        <v>169.0088655494096</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.4028114103273</v>
+        <v>208.0071315381175</v>
       </c>
       <c r="C16" t="n">
-        <v>157.4028114103273</v>
+        <v>208.0071315381175</v>
       </c>
       <c r="D16" t="n">
-        <v>157.4028114103273</v>
+        <v>162.0527368515118</v>
       </c>
       <c r="E16" t="n">
-        <v>111.5227176804094</v>
+        <v>116.1726431215939</v>
       </c>
       <c r="F16" t="n">
-        <v>111.5227176804094</v>
+        <v>68.52542674544637</v>
       </c>
       <c r="G16" t="n">
-        <v>53.68960974101214</v>
+        <v>54.78450999925298</v>
       </c>
       <c r="H16" t="n">
-        <v>14.48885478767176</v>
+        <v>15.58375504591254</v>
       </c>
       <c r="I16" t="n">
         <v>14.48885478767176</v>
@@ -5439,22 +5439,22 @@
         <v>14.48885478767176</v>
       </c>
       <c r="K16" t="n">
-        <v>180.8411986022101</v>
+        <v>15.98612585952877</v>
       </c>
       <c r="L16" t="n">
-        <v>202.1959585882358</v>
+        <v>195.2857038569668</v>
       </c>
       <c r="M16" t="n">
-        <v>381.4955365856738</v>
+        <v>374.5852818544047</v>
       </c>
       <c r="N16" t="n">
-        <v>560.7951145831117</v>
+        <v>553.8848598518427</v>
       </c>
       <c r="O16" t="n">
-        <v>574.5211037991371</v>
+        <v>567.6108490678681</v>
       </c>
       <c r="P16" t="n">
-        <v>660.1059205399813</v>
+        <v>724.4427393835878</v>
       </c>
       <c r="Q16" t="n">
         <v>724.4427393835878</v>
@@ -5463,25 +5463,25 @@
         <v>724.4427393835878</v>
       </c>
       <c r="S16" t="n">
-        <v>724.4427393835878</v>
+        <v>644.2403759213994</v>
       </c>
       <c r="T16" t="n">
-        <v>601.573741859342</v>
+        <v>521.3713783971536</v>
       </c>
       <c r="U16" t="n">
-        <v>425.8541536512287</v>
+        <v>521.3713783971536</v>
       </c>
       <c r="V16" t="n">
-        <v>425.8541536512287</v>
+        <v>521.3713783971536</v>
       </c>
       <c r="W16" t="n">
-        <v>346.365454463226</v>
+        <v>521.3713783971536</v>
       </c>
       <c r="X16" t="n">
-        <v>346.365454463226</v>
+        <v>396.9697745910163</v>
       </c>
       <c r="Y16" t="n">
-        <v>232.9321116907489</v>
+        <v>283.5364318185392</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>302.6622785308706</v>
+        <v>393.1297105205978</v>
       </c>
       <c r="C17" t="n">
-        <v>302.6622785308706</v>
+        <v>194.0930869292061</v>
       </c>
       <c r="D17" t="n">
-        <v>103.6256549394792</v>
+        <v>194.0930869292061</v>
       </c>
       <c r="E17" t="n">
-        <v>15.7637005884382</v>
+        <v>194.0930869292061</v>
       </c>
       <c r="F17" t="n">
-        <v>15.7637005884382</v>
+        <v>194.0930869292061</v>
       </c>
       <c r="G17" t="n">
-        <v>15.7637005884382</v>
+        <v>194.0930869292061</v>
       </c>
       <c r="H17" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="I17" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="J17" t="n">
-        <v>99.37135300282796</v>
+        <v>99.37135300282873</v>
       </c>
       <c r="K17" t="n">
-        <v>164.0350818861469</v>
+        <v>164.0350818861477</v>
       </c>
       <c r="L17" t="n">
-        <v>268.2423007316078</v>
+        <v>268.2423007316086</v>
       </c>
       <c r="M17" t="n">
-        <v>404.7780446173361</v>
+        <v>404.7780446173369</v>
       </c>
       <c r="N17" t="n">
-        <v>546.5220550291025</v>
+        <v>546.5220550291033</v>
       </c>
       <c r="O17" t="n">
-        <v>671.6989848631705</v>
+        <v>671.6989848631713</v>
       </c>
       <c r="P17" t="n">
-        <v>756.1089478476011</v>
+        <v>756.1089478476021</v>
       </c>
       <c r="Q17" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="R17" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="S17" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="T17" t="n">
-        <v>700.7355257136534</v>
+        <v>700.7355257136544</v>
       </c>
       <c r="U17" t="n">
-        <v>700.7355257136534</v>
+        <v>573.9229548445309</v>
       </c>
       <c r="V17" t="n">
-        <v>700.7355257136534</v>
+        <v>393.1297105205978</v>
       </c>
       <c r="W17" t="n">
-        <v>501.698902122262</v>
+        <v>393.1297105205978</v>
       </c>
       <c r="X17" t="n">
-        <v>501.698902122262</v>
+        <v>393.1297105205978</v>
       </c>
       <c r="Y17" t="n">
-        <v>302.6622785308706</v>
+        <v>393.1297105205978</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>170.9618398844899</v>
+        <v>194.2434552259615</v>
       </c>
       <c r="C18" t="n">
-        <v>149.1153946207008</v>
+        <v>172.3970099621725</v>
       </c>
       <c r="D18" t="n">
-        <v>147.8342124182999</v>
+        <v>171.1158277597715</v>
       </c>
       <c r="E18" t="n">
-        <v>140.1955067053064</v>
+        <v>34.66933687065928</v>
       </c>
       <c r="F18" t="n">
-        <v>15.7637005884382</v>
+        <v>34.66933687065928</v>
       </c>
       <c r="G18" t="n">
-        <v>15.7637005884382</v>
+        <v>34.66933687065928</v>
       </c>
       <c r="H18" t="n">
-        <v>15.7637005884382</v>
+        <v>34.66933687065928</v>
       </c>
       <c r="I18" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="J18" t="n">
-        <v>32.5206964109045</v>
+        <v>37.52597336816516</v>
       </c>
       <c r="K18" t="n">
-        <v>83.93554047769265</v>
+        <v>88.94081743495335</v>
       </c>
       <c r="L18" t="n">
-        <v>183.178795062189</v>
+        <v>188.1840720194497</v>
       </c>
       <c r="M18" t="n">
-        <v>378.2545898441117</v>
+        <v>316.5782334296225</v>
       </c>
       <c r="N18" t="n">
-        <v>573.3303846260344</v>
+        <v>457.7362254388074</v>
       </c>
       <c r="O18" t="n">
-        <v>688.0195029830982</v>
+        <v>572.4253437958712</v>
       </c>
       <c r="P18" t="n">
-        <v>767.5011385777931</v>
+        <v>767.5011385777941</v>
       </c>
       <c r="Q18" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="R18" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="S18" t="n">
-        <v>754.6102304056111</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="T18" t="n">
-        <v>710.0026887069686</v>
+        <v>743.5774877232684</v>
       </c>
       <c r="U18" t="n">
-        <v>628.8055756911034</v>
+        <v>652.0871910325751</v>
       </c>
       <c r="V18" t="n">
-        <v>535.0733592382892</v>
+        <v>558.3549745797609</v>
       </c>
       <c r="W18" t="n">
-        <v>433.7638985476949</v>
+        <v>457.0455138891664</v>
       </c>
       <c r="X18" t="n">
-        <v>373.2646060738252</v>
+        <v>396.5462214152968</v>
       </c>
       <c r="Y18" t="n">
-        <v>322.7581743254513</v>
+        <v>217.2320044908041</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>169.5131175946348</v>
+        <v>198.0312672055432</v>
       </c>
       <c r="C19" t="n">
-        <v>128.1157848367428</v>
+        <v>156.6339344476512</v>
       </c>
       <c r="D19" t="n">
-        <v>101.2904569153763</v>
+        <v>129.8086065262847</v>
       </c>
       <c r="E19" t="n">
-        <v>74.53942995069758</v>
+        <v>103.0575795616059</v>
       </c>
       <c r="F19" t="n">
-        <v>74.53942995069758</v>
+        <v>74.53942995069762</v>
       </c>
       <c r="G19" t="n">
-        <v>35.83538877653945</v>
+        <v>35.83538877653947</v>
       </c>
       <c r="H19" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="I19" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="J19" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="K19" t="n">
-        <v>182.1160444029766</v>
+        <v>17.26097166029524</v>
       </c>
       <c r="L19" t="n">
-        <v>377.1918391848993</v>
+        <v>202.9576450761421</v>
       </c>
       <c r="M19" t="n">
-        <v>401.825323391091</v>
+        <v>398.0334398580651</v>
       </c>
       <c r="N19" t="n">
-        <v>430.9804702402702</v>
+        <v>593.109234639988</v>
       </c>
       <c r="O19" t="n">
-        <v>626.0562650221929</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="P19" t="n">
-        <v>723.8482105783035</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="Q19" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="R19" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="S19" t="n">
-        <v>788.1850294219099</v>
+        <v>727.1117327249617</v>
       </c>
       <c r="T19" t="n">
-        <v>788.1850294219099</v>
+        <v>623.3718019659551</v>
       </c>
       <c r="U19" t="n">
-        <v>631.5945079790357</v>
+        <v>623.3718019659551</v>
       </c>
       <c r="V19" t="n">
-        <v>494.4229479759787</v>
+        <v>486.2002419628981</v>
       </c>
       <c r="W19" t="n">
-        <v>369.0899306427709</v>
+        <v>454.0083137688618</v>
       </c>
       <c r="X19" t="n">
-        <v>263.8173936018727</v>
+        <v>348.7357767279636</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.5131175946348</v>
+        <v>254.4315007207258</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>413.836947771221</v>
+        <v>390.1117822391276</v>
       </c>
       <c r="C20" t="n">
-        <v>413.836947771221</v>
+        <v>191.075158647736</v>
       </c>
       <c r="D20" t="n">
-        <v>413.836947771221</v>
+        <v>191.075158647736</v>
       </c>
       <c r="E20" t="n">
-        <v>214.8003241798296</v>
+        <v>191.075158647736</v>
       </c>
       <c r="F20" t="n">
-        <v>214.8003241798296</v>
+        <v>191.075158647736</v>
       </c>
       <c r="G20" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="H20" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="I20" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="J20" t="n">
-        <v>99.37135300282796</v>
+        <v>99.37135300282873</v>
       </c>
       <c r="K20" t="n">
-        <v>164.0350818861469</v>
+        <v>164.0350818861477</v>
       </c>
       <c r="L20" t="n">
-        <v>268.2423007316078</v>
+        <v>268.2423007316086</v>
       </c>
       <c r="M20" t="n">
-        <v>404.7780446173361</v>
+        <v>404.7780446173369</v>
       </c>
       <c r="N20" t="n">
-        <v>546.5220550291025</v>
+        <v>546.5220550291033</v>
       </c>
       <c r="O20" t="n">
-        <v>671.6989848631705</v>
+        <v>671.6989848631713</v>
       </c>
       <c r="P20" t="n">
-        <v>756.1089478476011</v>
+        <v>756.1089478476021</v>
       </c>
       <c r="Q20" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="R20" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="S20" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="T20" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="U20" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="V20" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="W20" t="n">
-        <v>788.1850294219099</v>
+        <v>589.1484058305193</v>
       </c>
       <c r="X20" t="n">
-        <v>589.1484058305185</v>
+        <v>390.1117822391276</v>
       </c>
       <c r="Y20" t="n">
-        <v>413.836947771221</v>
+        <v>390.1117822391276</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>214.8582885034447</v>
+        <v>214.8582885034457</v>
       </c>
       <c r="C21" t="n">
-        <v>193.0118432396557</v>
+        <v>193.0118432396567</v>
       </c>
       <c r="D21" t="n">
-        <v>191.7306610372548</v>
+        <v>191.7306610372558</v>
       </c>
       <c r="E21" t="n">
-        <v>134.9381925500849</v>
+        <v>184.0919553242622</v>
       </c>
       <c r="F21" t="n">
-        <v>134.9381925500849</v>
+        <v>59.66014920739404</v>
       </c>
       <c r="G21" t="n">
-        <v>15.7637005884382</v>
+        <v>59.66014920739404</v>
       </c>
       <c r="H21" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="I21" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="J21" t="n">
-        <v>16.12306323159066</v>
+        <v>16.12306323159069</v>
       </c>
       <c r="K21" t="n">
-        <v>67.53790729837881</v>
+        <v>67.53790729837888</v>
       </c>
       <c r="L21" t="n">
-        <v>166.7811618828752</v>
+        <v>166.7811618828753</v>
       </c>
       <c r="M21" t="n">
-        <v>295.1753232930479</v>
+        <v>295.1753232930481</v>
       </c>
       <c r="N21" t="n">
-        <v>490.2511180749706</v>
+        <v>436.3333153022329</v>
       </c>
       <c r="O21" t="n">
-        <v>604.9402364320343</v>
+        <v>551.0224336592967</v>
       </c>
       <c r="P21" t="n">
-        <v>684.4218720267293</v>
+        <v>737.0682230420778</v>
       </c>
       <c r="Q21" t="n">
-        <v>757.7521138861936</v>
+        <v>757.7521138861946</v>
       </c>
       <c r="R21" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="S21" t="n">
-        <v>669.6988938484473</v>
+        <v>669.6988938484483</v>
       </c>
       <c r="T21" t="n">
-        <v>625.0913521498047</v>
+        <v>625.0913521498057</v>
       </c>
       <c r="U21" t="n">
-        <v>543.8942391339395</v>
+        <v>543.8942391339406</v>
       </c>
       <c r="V21" t="n">
-        <v>450.1620226811253</v>
+        <v>450.1620226811264</v>
       </c>
       <c r="W21" t="n">
-        <v>348.8525619905309</v>
+        <v>348.852561990532</v>
       </c>
       <c r="X21" t="n">
-        <v>288.3532695166613</v>
+        <v>288.3532695166624</v>
       </c>
       <c r="Y21" t="n">
-        <v>237.8468377682873</v>
+        <v>237.8468377682883</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.929893273493</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="C22" t="n">
-        <v>117.929893273493</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="D22" t="n">
-        <v>91.10456535212647</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="E22" t="n">
-        <v>64.35353838744774</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="F22" t="n">
-        <v>35.83538877653945</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="G22" t="n">
-        <v>35.83538877653945</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="H22" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="I22" t="n">
-        <v>15.7637005884382</v>
+        <v>15.76370058843822</v>
       </c>
       <c r="J22" t="n">
-        <v>15.7637005884382</v>
+        <v>37.42118358831274</v>
       </c>
       <c r="K22" t="n">
-        <v>117.2660662465097</v>
+        <v>117.26606624651</v>
       </c>
       <c r="L22" t="n">
-        <v>138.6208262325354</v>
+        <v>138.6208262325357</v>
       </c>
       <c r="M22" t="n">
-        <v>333.6966210144581</v>
+        <v>333.6966210144586</v>
       </c>
       <c r="N22" t="n">
-        <v>528.7724157963808</v>
+        <v>528.7724157963816</v>
       </c>
       <c r="O22" t="n">
-        <v>723.8482105783035</v>
+        <v>723.8482105783045</v>
       </c>
       <c r="P22" t="n">
-        <v>723.8482105783035</v>
+        <v>723.8482105783045</v>
       </c>
       <c r="Q22" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="R22" t="n">
-        <v>788.1850294219099</v>
+        <v>788.1850294219109</v>
       </c>
       <c r="S22" t="n">
-        <v>727.1117327249607</v>
+        <v>727.1117327249617</v>
       </c>
       <c r="T22" t="n">
-        <v>623.3718019659541</v>
+        <v>623.3718019659551</v>
       </c>
       <c r="U22" t="n">
-        <v>466.7812805230799</v>
+        <v>466.7812805230809</v>
       </c>
       <c r="V22" t="n">
-        <v>466.7812805230799</v>
+        <v>329.6097205200239</v>
       </c>
       <c r="W22" t="n">
-        <v>312.2586636303762</v>
+        <v>175.0871036273202</v>
       </c>
       <c r="X22" t="n">
-        <v>268.6344027959134</v>
+        <v>69.81456658642207</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3301267886755</v>
+        <v>15.76370058843822</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1154.53102068928</v>
+        <v>1411.164364296494</v>
       </c>
       <c r="C23" t="n">
-        <v>890.1633043683296</v>
+        <v>1146.796647975543</v>
       </c>
       <c r="D23" t="n">
         <v>890.1633043683296</v>
@@ -5989,25 +5989,25 @@
         <v>45.6006100332006</v>
       </c>
       <c r="J23" t="n">
-        <v>66.74081821003446</v>
+        <v>327.8936306817852</v>
       </c>
       <c r="K23" t="n">
-        <v>131.4045470933534</v>
+        <v>892.2011798426425</v>
       </c>
       <c r="L23" t="n">
-        <v>695.7120962542107</v>
+        <v>1456.5087290035</v>
       </c>
       <c r="M23" t="n">
-        <v>1034.929358779575</v>
+        <v>1593.044472889228</v>
       </c>
       <c r="N23" t="n">
-        <v>1599.236907940433</v>
+        <v>1734.788483300995</v>
       </c>
       <c r="O23" t="n">
-        <v>2163.54445710129</v>
+        <v>1859.965413135063</v>
       </c>
       <c r="P23" t="n">
-        <v>2247.954420085721</v>
+        <v>1944.375376119493</v>
       </c>
       <c r="Q23" t="n">
         <v>2280.03050166003</v>
@@ -6025,16 +6025,16 @@
         <v>2065.768427082649</v>
       </c>
       <c r="V23" t="n">
-        <v>1954.545725018663</v>
+        <v>2065.768427082649</v>
       </c>
       <c r="W23" t="n">
-        <v>1954.545725018663</v>
+        <v>2065.768427082649</v>
       </c>
       <c r="X23" t="n">
-        <v>1693.900905127839</v>
+        <v>1805.123607191825</v>
       </c>
       <c r="Y23" t="n">
-        <v>1426.217981224558</v>
+        <v>1537.440683288545</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>805.0492645087327</v>
+        <v>805.0492645087329</v>
       </c>
       <c r="C24" t="n">
-        <v>654.3950340688249</v>
+        <v>654.395034068825</v>
       </c>
       <c r="D24" t="n">
         <v>524.3060666903052</v>
@@ -6056,46 +6056,46 @@
         <v>387.8595758011929</v>
       </c>
       <c r="F24" t="n">
-        <v>263.4277696843247</v>
+        <v>263.4277696843246</v>
       </c>
       <c r="G24" t="n">
         <v>144.2532777226781</v>
       </c>
       <c r="H24" t="n">
-        <v>64.50624631542166</v>
+        <v>64.50624631542165</v>
       </c>
       <c r="I24" t="n">
         <v>45.6006100332006</v>
       </c>
       <c r="J24" t="n">
-        <v>45.95997267635305</v>
+        <v>240.6949676560805</v>
       </c>
       <c r="K24" t="n">
-        <v>505.8149287853677</v>
+        <v>292.1098117228686</v>
       </c>
       <c r="L24" t="n">
-        <v>1070.122477946225</v>
+        <v>856.4173608837259</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.516639356398</v>
+        <v>984.8115222938986</v>
       </c>
       <c r="N24" t="n">
-        <v>1339.674631365583</v>
+        <v>1125.969514303084</v>
       </c>
       <c r="O24" t="n">
-        <v>1454.363749722646</v>
+        <v>1690.277063463941</v>
       </c>
       <c r="P24" t="n">
-        <v>1934.903247636666</v>
+        <v>1934.903247636667</v>
       </c>
       <c r="Q24" t="n">
-        <v>2280.030501660029</v>
+        <v>2280.03050166003</v>
       </c>
       <c r="R24" t="n">
-        <v>2280.030501660029</v>
+        <v>2280.03050166003</v>
       </c>
       <c r="S24" t="n">
-        <v>2161.544366086566</v>
+        <v>2161.544366086567</v>
       </c>
       <c r="T24" t="n">
         <v>1988.129039211805</v>
@@ -6113,7 +6113,7 @@
         <v>1136.159815874187</v>
       </c>
       <c r="Y24" t="n">
-        <v>956.845598949694</v>
+        <v>956.8455989496942</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>227.8681766503055</v>
+        <v>614.2915321786619</v>
       </c>
       <c r="C25" t="n">
-        <v>186.4708438924135</v>
+        <v>572.8941994207698</v>
       </c>
       <c r="D25" t="n">
-        <v>159.645515971047</v>
+        <v>546.0688714994034</v>
       </c>
       <c r="E25" t="n">
-        <v>132.8944890063683</v>
+        <v>519.3178445347246</v>
       </c>
       <c r="F25" t="n">
-        <v>104.37633939546</v>
+        <v>361.9919097476975</v>
       </c>
       <c r="G25" t="n">
-        <v>65.67229822130184</v>
+        <v>194.4800833974206</v>
       </c>
       <c r="H25" t="n">
         <v>45.6006100332006</v>
@@ -6153,7 +6153,7 @@
         <v>233.6104368476135</v>
       </c>
       <c r="L25" t="n">
-        <v>505.8911258944157</v>
+        <v>505.8911258944158</v>
       </c>
       <c r="M25" t="n">
         <v>806.2149304091554</v>
@@ -6174,25 +6174,25 @@
         <v>1612.17428971269</v>
       </c>
       <c r="S25" t="n">
-        <v>1422.293207839622</v>
+        <v>1551.100993015741</v>
       </c>
       <c r="T25" t="n">
         <v>1318.553277080615</v>
       </c>
       <c r="U25" t="n">
-        <v>1033.154970461622</v>
+        <v>1161.962755637741</v>
       </c>
       <c r="V25" t="n">
-        <v>895.9834104585652</v>
+        <v>1024.791195634684</v>
       </c>
       <c r="W25" t="n">
-        <v>741.4607935658616</v>
+        <v>870.2685787419805</v>
       </c>
       <c r="X25" t="n">
-        <v>507.3804713488447</v>
+        <v>764.9960417010824</v>
       </c>
       <c r="Y25" t="n">
-        <v>284.268410165488</v>
+        <v>670.6917656938444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1748.35432266433</v>
+        <v>1092.477279389031</v>
       </c>
       <c r="C26" t="n">
-        <v>1416.548614669812</v>
+        <v>1092.477279389031</v>
       </c>
       <c r="D26" t="n">
         <v>1092.477279389031</v>
@@ -6214,7 +6214,7 @@
         <v>751.2635480081271</v>
       </c>
       <c r="F26" t="n">
-        <v>395.7389030406565</v>
+        <v>395.7389030406566</v>
       </c>
       <c r="G26" t="n">
         <v>45.6006100332006</v>
@@ -6226,28 +6226,28 @@
         <v>45.6006100332006</v>
       </c>
       <c r="J26" t="n">
-        <v>66.74081821003446</v>
+        <v>327.8936306817852</v>
       </c>
       <c r="K26" t="n">
-        <v>131.4045470933534</v>
+        <v>892.2011798426424</v>
       </c>
       <c r="L26" t="n">
-        <v>235.6117659388143</v>
+        <v>1456.5087290035</v>
       </c>
       <c r="M26" t="n">
-        <v>799.9193150996716</v>
+        <v>1593.044472889228</v>
       </c>
       <c r="N26" t="n">
-        <v>1364.226864260529</v>
+        <v>1734.788483300995</v>
       </c>
       <c r="O26" t="n">
-        <v>1928.534413421386</v>
+        <v>1859.965413135063</v>
       </c>
       <c r="P26" t="n">
-        <v>2247.954420085721</v>
+        <v>1944.375376119493</v>
       </c>
       <c r="Q26" t="n">
-        <v>2280.03050166003</v>
+        <v>2215.395662719135</v>
       </c>
       <c r="R26" t="n">
         <v>2280.03050166003</v>
@@ -6256,22 +6256,22 @@
         <v>2280.03050166003</v>
       </c>
       <c r="T26" t="n">
-        <v>2270.687696771412</v>
+        <v>2280.03050166003</v>
       </c>
       <c r="U26" t="n">
-        <v>2076.437134228721</v>
+        <v>2280.03050166003</v>
       </c>
       <c r="V26" t="n">
-        <v>2076.437134228721</v>
+        <v>2094.805958739115</v>
       </c>
       <c r="W26" t="n">
-        <v>2076.437134228721</v>
+        <v>2094.805958739115</v>
       </c>
       <c r="X26" t="n">
-        <v>1748.35432266433</v>
+        <v>1766.723147174724</v>
       </c>
       <c r="Y26" t="n">
-        <v>1748.35432266433</v>
+        <v>1431.602231597876</v>
       </c>
     </row>
     <row r="27">
@@ -6281,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>805.0492645087329</v>
+        <v>805.0492645087327</v>
       </c>
       <c r="C27" t="n">
-        <v>654.395034068825</v>
+        <v>654.3950340688249</v>
       </c>
       <c r="D27" t="n">
         <v>524.3060666903052</v>
@@ -6293,10 +6293,10 @@
         <v>387.8595758011929</v>
       </c>
       <c r="F27" t="n">
-        <v>263.4277696843246</v>
+        <v>263.4277696843247</v>
       </c>
       <c r="G27" t="n">
-        <v>144.2532777226779</v>
+        <v>144.2532777226781</v>
       </c>
       <c r="H27" t="n">
         <v>64.50624631542166</v>
@@ -6305,34 +6305,34 @@
         <v>45.6006100332006</v>
       </c>
       <c r="J27" t="n">
-        <v>45.95997267635305</v>
+        <v>240.6949676560805</v>
       </c>
       <c r="K27" t="n">
-        <v>97.37481674314121</v>
+        <v>700.5499237650951</v>
       </c>
       <c r="L27" t="n">
-        <v>196.6180713276376</v>
+        <v>1264.857472925952</v>
       </c>
       <c r="M27" t="n">
-        <v>566.4239633333406</v>
+        <v>1439.191951288806</v>
       </c>
       <c r="N27" t="n">
-        <v>1130.731512494198</v>
+        <v>1580.349943297991</v>
       </c>
       <c r="O27" t="n">
-        <v>1695.039061655055</v>
+        <v>1695.039061655054</v>
       </c>
       <c r="P27" t="n">
-        <v>2259.346610815913</v>
+        <v>2259.346610815912</v>
       </c>
       <c r="Q27" t="n">
-        <v>2280.03050166003</v>
+        <v>2280.030501660029</v>
       </c>
       <c r="R27" t="n">
-        <v>2280.03050166003</v>
+        <v>2280.030501660029</v>
       </c>
       <c r="S27" t="n">
-        <v>2161.544366086567</v>
+        <v>2161.544366086566</v>
       </c>
       <c r="T27" t="n">
         <v>1988.129039211805</v>
@@ -6350,7 +6350,7 @@
         <v>1136.159815874187</v>
       </c>
       <c r="Y27" t="n">
-        <v>956.8455989496942</v>
+        <v>956.845598949694</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>681.8999518582771</v>
+        <v>681.8999518582773</v>
       </c>
       <c r="C28" t="n">
-        <v>573.0646274268179</v>
+        <v>573.0646274268181</v>
       </c>
       <c r="D28" t="n">
-        <v>478.8013078318843</v>
+        <v>478.8013078318845</v>
       </c>
       <c r="E28" t="n">
-        <v>384.6122891936384</v>
+        <v>384.6122891936386</v>
       </c>
       <c r="F28" t="n">
-        <v>288.656147909163</v>
+        <v>288.6561479091631</v>
       </c>
       <c r="G28" t="n">
-        <v>182.5141150614377</v>
+        <v>182.5141150614378</v>
       </c>
       <c r="H28" t="n">
-        <v>95.00443519976932</v>
+        <v>95.00443519976935</v>
       </c>
       <c r="I28" t="n">
         <v>45.6006100332006</v>
@@ -6387,22 +6387,22 @@
         <v>127.406627644926</v>
       </c>
       <c r="K28" t="n">
-        <v>353.9075060713154</v>
+        <v>353.9075060713152</v>
       </c>
       <c r="L28" t="n">
-        <v>686.3367297299685</v>
+        <v>686.3367297299683</v>
       </c>
       <c r="M28" t="n">
-        <v>1046.809068856559</v>
+        <v>1046.809068856558</v>
       </c>
       <c r="N28" t="n">
-        <v>1401.468032212176</v>
+        <v>1401.468032212175</v>
       </c>
       <c r="O28" t="n">
-        <v>1727.144105575521</v>
+        <v>1727.14410557552</v>
       </c>
       <c r="P28" t="n">
-        <v>1995.151450344385</v>
+        <v>1995.151450344384</v>
       </c>
       <c r="Q28" t="n">
         <v>2119.636803799842</v>
@@ -6426,10 +6426,10 @@
         <v>1140.190973442297</v>
       </c>
       <c r="X28" t="n">
-        <v>967.4804447278318</v>
+        <v>967.480444727832</v>
       </c>
       <c r="Y28" t="n">
-        <v>805.7381770470267</v>
+        <v>805.738177047027</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1509.285074907429</v>
+        <v>1338.244657403366</v>
       </c>
       <c r="C29" t="n">
-        <v>1351.420354109158</v>
+        <v>1338.244657403366</v>
       </c>
       <c r="D29" t="n">
-        <v>1351.420354109158</v>
+        <v>1338.244657403366</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.206622728254</v>
+        <v>997.0309260224622</v>
       </c>
       <c r="F29" t="n">
-        <v>654.6819777607834</v>
+        <v>641.5062810549915</v>
       </c>
       <c r="G29" t="n">
-        <v>304.5436847533275</v>
+        <v>291.3679880475356</v>
       </c>
       <c r="H29" t="n">
-        <v>58.7763067389925</v>
+        <v>45.6006100332006</v>
       </c>
       <c r="I29" t="n">
         <v>45.6006100332006</v>
       </c>
       <c r="J29" t="n">
-        <v>66.74081821003446</v>
+        <v>327.8936306817852</v>
       </c>
       <c r="K29" t="n">
-        <v>131.4045470933534</v>
+        <v>392.5573595651042</v>
       </c>
       <c r="L29" t="n">
-        <v>235.6117659388143</v>
+        <v>956.8649087259615</v>
       </c>
       <c r="M29" t="n">
-        <v>642.3952482635242</v>
+        <v>1093.40065261169</v>
       </c>
       <c r="N29" t="n">
-        <v>1206.702797424382</v>
+        <v>1235.144663023456</v>
       </c>
       <c r="O29" t="n">
         <v>1771.010346585239</v>
@@ -6490,25 +6490,25 @@
         <v>2280.03050166003</v>
       </c>
       <c r="S29" t="n">
-        <v>2280.03050166003</v>
+        <v>2212.592509986463</v>
       </c>
       <c r="T29" t="n">
-        <v>2125.143006278206</v>
+        <v>2148.353151316834</v>
       </c>
       <c r="U29" t="n">
-        <v>2125.143006278206</v>
+        <v>1954.102588774143</v>
       </c>
       <c r="V29" t="n">
-        <v>1844.405990484276</v>
+        <v>1673.365572980213</v>
       </c>
       <c r="W29" t="n">
-        <v>1844.405990484276</v>
+        <v>1673.365572980213</v>
       </c>
       <c r="X29" t="n">
-        <v>1844.405990484276</v>
+        <v>1673.365572980213</v>
       </c>
       <c r="Y29" t="n">
-        <v>1509.285074907429</v>
+        <v>1338.244657403366</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>144.2532777226781</v>
       </c>
       <c r="H30" t="n">
-        <v>64.50624631542166</v>
+        <v>64.50624631542165</v>
       </c>
       <c r="I30" t="n">
         <v>45.6006100332006</v>
       </c>
       <c r="J30" t="n">
-        <v>45.95997267635305</v>
+        <v>45.95997267635307</v>
       </c>
       <c r="K30" t="n">
-        <v>97.37481674314121</v>
+        <v>97.37481674314125</v>
       </c>
       <c r="L30" t="n">
         <v>196.6180713276376</v>
       </c>
       <c r="M30" t="n">
-        <v>535.9910477976233</v>
+        <v>760.9256204884949</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.298596958481</v>
+        <v>1325.233169649352</v>
       </c>
       <c r="O30" t="n">
-        <v>1664.606146119338</v>
+        <v>1855.421612041971</v>
       </c>
       <c r="P30" t="n">
-        <v>2228.913695280195</v>
+        <v>1934.903247636666</v>
       </c>
       <c r="Q30" t="n">
-        <v>2249.597586124312</v>
+        <v>2280.030501660029</v>
       </c>
       <c r="R30" t="n">
         <v>2280.030501660029</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>681.8999518582772</v>
+        <v>681.8999518582771</v>
       </c>
       <c r="C31" t="n">
-        <v>573.064627426818</v>
+        <v>573.0646274268179</v>
       </c>
       <c r="D31" t="n">
-        <v>478.8013078318844</v>
+        <v>478.8013078318843</v>
       </c>
       <c r="E31" t="n">
-        <v>384.6122891936385</v>
+        <v>384.6122891936384</v>
       </c>
       <c r="F31" t="n">
-        <v>288.6561479091631</v>
+        <v>288.656147909163</v>
       </c>
       <c r="G31" t="n">
-        <v>182.5141150614378</v>
+        <v>182.5141150614377</v>
       </c>
       <c r="H31" t="n">
         <v>95.00443519976932</v>
@@ -6621,13 +6621,13 @@
         <v>45.6006100332006</v>
       </c>
       <c r="J31" t="n">
-        <v>127.406627644926</v>
+        <v>127.4066276449259</v>
       </c>
       <c r="K31" t="n">
         <v>353.9075060713152</v>
       </c>
       <c r="L31" t="n">
-        <v>686.3367297299683</v>
+        <v>686.3367297299684</v>
       </c>
       <c r="M31" t="n">
         <v>1046.809068856559</v>
@@ -6666,7 +6666,7 @@
         <v>967.4804447278318</v>
       </c>
       <c r="Y31" t="n">
-        <v>805.7381770470269</v>
+        <v>805.7381770470267</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>843.1645832147121</v>
+        <v>1349.037761447208</v>
       </c>
       <c r="C32" t="n">
-        <v>546.0523579229017</v>
+        <v>1051.925536155397</v>
       </c>
       <c r="D32" t="n">
-        <v>256.6745053448283</v>
+        <v>1051.925536155397</v>
       </c>
       <c r="E32" t="n">
-        <v>256.6745053448283</v>
+        <v>745.4052874772005</v>
       </c>
       <c r="F32" t="n">
-        <v>256.6745053448283</v>
+        <v>424.5741252124372</v>
       </c>
       <c r="G32" t="n">
-        <v>256.6745053448283</v>
+        <v>109.1293149076885</v>
       </c>
       <c r="H32" t="n">
         <v>45.6006100332006</v>
@@ -6715,10 +6715,10 @@
         <v>1364.226864260529</v>
       </c>
       <c r="O32" t="n">
-        <v>1928.534413421386</v>
+        <v>1489.403794094597</v>
       </c>
       <c r="P32" t="n">
-        <v>2183.319581144826</v>
+        <v>1855.420309569669</v>
       </c>
       <c r="Q32" t="n">
         <v>2215.395662719135</v>
@@ -6727,25 +6727,25 @@
         <v>2280.03050166003</v>
       </c>
       <c r="S32" t="n">
-        <v>2248.753870031766</v>
+        <v>2247.28599268917</v>
       </c>
       <c r="T32" t="n">
-        <v>2128.55985735265</v>
+        <v>2247.28599268917</v>
       </c>
       <c r="U32" t="n">
-        <v>1969.002777512667</v>
+        <v>2247.28599268917</v>
       </c>
       <c r="V32" t="n">
-        <v>1722.959244421444</v>
+        <v>2247.28599268917</v>
       </c>
       <c r="W32" t="n">
-        <v>1448.02348559499</v>
+        <v>2247.28599268917</v>
       </c>
       <c r="X32" t="n">
-        <v>1448.02348559499</v>
+        <v>1953.896663827486</v>
       </c>
       <c r="Y32" t="n">
-        <v>1147.59605272085</v>
+        <v>1653.469230953346</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>45.6006100332006</v>
       </c>
       <c r="J33" t="n">
-        <v>45.95997267635307</v>
+        <v>240.6949676560805</v>
       </c>
       <c r="K33" t="n">
-        <v>97.37481674314125</v>
+        <v>292.1098117228686</v>
       </c>
       <c r="L33" t="n">
-        <v>486.9423277386455</v>
+        <v>856.4173608837259</v>
       </c>
       <c r="M33" t="n">
-        <v>1051.249876899503</v>
+        <v>989.5735204850122</v>
       </c>
       <c r="N33" t="n">
-        <v>1615.55742606036</v>
+        <v>1130.731512494197</v>
       </c>
       <c r="O33" t="n">
-        <v>2179.864975221218</v>
+        <v>1695.039061655054</v>
       </c>
       <c r="P33" t="n">
-        <v>2259.346610815913</v>
+        <v>2259.346610815912</v>
       </c>
       <c r="Q33" t="n">
-        <v>2280.03050166003</v>
+        <v>2280.030501660029</v>
       </c>
       <c r="R33" t="n">
         <v>2280.030501660029</v>
@@ -6885,22 +6885,22 @@
         <v>1638.448526905035</v>
       </c>
       <c r="S34" t="n">
-        <v>1476.258811396305</v>
+        <v>1544.630721237226</v>
       </c>
       <c r="T34" t="n">
-        <v>1339.774371666439</v>
+        <v>1408.146281507359</v>
       </c>
       <c r="U34" t="n">
-        <v>1150.439341252705</v>
+        <v>1218.811251093625</v>
       </c>
       <c r="V34" t="n">
-        <v>980.5232722787878</v>
+        <v>1048.895182119708</v>
       </c>
       <c r="W34" t="n">
-        <v>793.2561464152243</v>
+        <v>861.6280562561449</v>
       </c>
       <c r="X34" t="n">
-        <v>655.2391004034663</v>
+        <v>723.6110102443869</v>
       </c>
       <c r="Y34" t="n">
         <v>528.1903154253686</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>667.3877278150409</v>
+        <v>1098.217771120328</v>
       </c>
       <c r="C35" t="n">
-        <v>667.3877278150409</v>
+        <v>801.1055458285171</v>
       </c>
       <c r="D35" t="n">
-        <v>667.3877278150409</v>
+        <v>801.1055458285171</v>
       </c>
       <c r="E35" t="n">
-        <v>667.3877278150409</v>
+        <v>801.1055458285171</v>
       </c>
       <c r="F35" t="n">
-        <v>346.5565655502775</v>
+        <v>480.2743835637537</v>
       </c>
       <c r="G35" t="n">
-        <v>31.11175524552884</v>
+        <v>164.829573259005</v>
       </c>
       <c r="H35" t="n">
         <v>31.11175524552884</v>
@@ -6946,16 +6946,16 @@
         <v>482.2757236228933</v>
       </c>
       <c r="M35" t="n">
-        <v>628.3188085412266</v>
+        <v>618.8114675086216</v>
       </c>
       <c r="N35" t="n">
-        <v>1013.326779704646</v>
+        <v>760.5554779203879</v>
       </c>
       <c r="O35" t="n">
-        <v>1138.503709538714</v>
+        <v>885.7324077544559</v>
       </c>
       <c r="P35" t="n">
-        <v>1523.511680702133</v>
+        <v>1195.612409126976</v>
       </c>
       <c r="Q35" t="n">
         <v>1555.587762276442</v>
@@ -6970,19 +6970,19 @@
         <v>1402.649240626466</v>
       </c>
       <c r="U35" t="n">
-        <v>1265.208526182863</v>
+        <v>1402.649240626466</v>
       </c>
       <c r="V35" t="n">
-        <v>1265.208526182863</v>
+        <v>1402.649240626466</v>
       </c>
       <c r="W35" t="n">
-        <v>1265.208526182863</v>
+        <v>1402.649240626466</v>
       </c>
       <c r="X35" t="n">
-        <v>971.8191973211789</v>
+        <v>1402.649240626466</v>
       </c>
       <c r="Y35" t="n">
-        <v>971.8191973211789</v>
+        <v>1402.649240626466</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>406.3073049000254</v>
+        <v>403.7179134158068</v>
       </c>
       <c r="C36" t="n">
-        <v>351.7163506653765</v>
+        <v>349.1269591811579</v>
       </c>
       <c r="D36" t="n">
-        <v>317.6906594921157</v>
+        <v>315.1012680078971</v>
       </c>
       <c r="E36" t="n">
-        <v>277.3074448082623</v>
+        <v>178.6547771187848</v>
       </c>
       <c r="F36" t="n">
-        <v>152.8756386913941</v>
+        <v>54.22297100191662</v>
       </c>
       <c r="G36" t="n">
-        <v>129.7644229350063</v>
+        <v>31.11175524552884</v>
       </c>
       <c r="H36" t="n">
-        <v>50.0173915277499</v>
+        <v>31.11175524552884</v>
       </c>
       <c r="I36" t="n">
         <v>31.11175524552884</v>
       </c>
       <c r="J36" t="n">
-        <v>31.47111788868132</v>
+        <v>226.2061128684087</v>
       </c>
       <c r="K36" t="n">
-        <v>82.8859619554695</v>
+        <v>611.2140840318281</v>
       </c>
       <c r="L36" t="n">
-        <v>182.1292165399659</v>
+        <v>996.2220551952474</v>
       </c>
       <c r="M36" t="n">
-        <v>310.5233779501386</v>
+        <v>1169.142209935665</v>
       </c>
       <c r="N36" t="n">
-        <v>451.6813699593234</v>
+        <v>1310.30020194485</v>
       </c>
       <c r="O36" t="n">
-        <v>836.6893411227429</v>
+        <v>1424.989320301914</v>
       </c>
       <c r="P36" t="n">
-        <v>1210.46050825308</v>
+        <v>1504.470955896609</v>
       </c>
       <c r="Q36" t="n">
-        <v>1555.587762276442</v>
+        <v>1525.154846740726</v>
       </c>
       <c r="R36" t="n">
         <v>1555.587762276442</v>
       </c>
       <c r="S36" t="n">
-        <v>1437.10162670298</v>
+        <v>1437.101626702979</v>
       </c>
       <c r="T36" t="n">
-        <v>1359.749576033477</v>
+        <v>1263.686299828218</v>
       </c>
       <c r="U36" t="n">
-        <v>1187.255629000596</v>
+        <v>1053.681401636234</v>
       </c>
       <c r="V36" t="n">
-        <v>964.715627371663</v>
+        <v>831.1414000073009</v>
       </c>
       <c r="W36" t="n">
-        <v>830.6616577102088</v>
+        <v>635.9457138154726</v>
       </c>
       <c r="X36" t="n">
-        <v>641.3545800602205</v>
+        <v>542.7019123707431</v>
       </c>
       <c r="Y36" t="n">
-        <v>462.0403631357278</v>
+        <v>459.4509716515092</v>
       </c>
     </row>
     <row r="37">
@@ -7095,25 +7095,25 @@
         <v>31.11175524552884</v>
       </c>
       <c r="J37" t="n">
-        <v>31.11175524552884</v>
+        <v>48.73414724808848</v>
       </c>
       <c r="K37" t="n">
-        <v>197.4640990600672</v>
+        <v>215.0864910626269</v>
       </c>
       <c r="L37" t="n">
-        <v>423.030361265823</v>
+        <v>487.3671801094292</v>
       </c>
       <c r="M37" t="n">
-        <v>723.3541657805627</v>
+        <v>787.6909846241688</v>
       </c>
       <c r="N37" t="n">
-        <v>1017.864594524329</v>
+        <v>1082.201413367935</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.392133275823</v>
+        <v>1347.728952119429</v>
       </c>
       <c r="P37" t="n">
-        <v>1491.250943432836</v>
+        <v>1555.587762276442</v>
       </c>
       <c r="Q37" t="n">
         <v>1555.587762276442</v>
@@ -7125,7 +7125,7 @@
         <v>1461.769956608633</v>
       </c>
       <c r="T37" t="n">
-        <v>1325.285516878767</v>
+        <v>1325.285516878766</v>
       </c>
       <c r="U37" t="n">
         <v>1135.950486465033</v>
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1102.221807752326</v>
+        <v>1262.198433414759</v>
       </c>
       <c r="C38" t="n">
-        <v>805.1095824605152</v>
+        <v>965.0862081229482</v>
       </c>
       <c r="D38" t="n">
-        <v>515.7317298824419</v>
+        <v>675.7083555448748</v>
       </c>
       <c r="E38" t="n">
-        <v>346.5565655502775</v>
+        <v>369.1881068666783</v>
       </c>
       <c r="F38" t="n">
-        <v>346.5565655502775</v>
+        <v>48.35694460191496</v>
       </c>
       <c r="G38" t="n">
-        <v>31.11175524552884</v>
+        <v>31.11175524552886</v>
       </c>
       <c r="H38" t="n">
-        <v>31.11175524552884</v>
+        <v>31.11175524552886</v>
       </c>
       <c r="I38" t="n">
-        <v>31.11175524552884</v>
+        <v>31.11175524552886</v>
       </c>
       <c r="J38" t="n">
         <v>313.4047758941135</v>
       </c>
       <c r="K38" t="n">
-        <v>378.0685047774324</v>
+        <v>698.4127470575331</v>
       </c>
       <c r="L38" t="n">
-        <v>482.2757236228933</v>
+        <v>1035.645033586141</v>
       </c>
       <c r="M38" t="n">
-        <v>867.2836947863127</v>
+        <v>1172.180777471869</v>
       </c>
       <c r="N38" t="n">
-        <v>1252.291665949732</v>
+        <v>1313.924787883635</v>
       </c>
       <c r="O38" t="n">
         <v>1439.101717717703</v>
       </c>
       <c r="P38" t="n">
-        <v>1523.511680702133</v>
+        <v>1523.511680702134</v>
       </c>
       <c r="Q38" t="n">
-        <v>1555.587762276442</v>
+        <v>1555.587762276443</v>
       </c>
       <c r="R38" t="n">
-        <v>1555.587762276442</v>
+        <v>1555.587762276443</v>
       </c>
       <c r="S38" t="n">
-        <v>1522.843253305582</v>
+        <v>1555.587762276443</v>
       </c>
       <c r="T38" t="n">
-        <v>1402.649240626466</v>
+        <v>1555.587762276443</v>
       </c>
       <c r="U38" t="n">
-        <v>1402.649240626466</v>
+        <v>1555.587762276443</v>
       </c>
       <c r="V38" t="n">
-        <v>1402.649240626466</v>
+        <v>1555.587762276443</v>
       </c>
       <c r="W38" t="n">
-        <v>1402.649240626466</v>
+        <v>1555.587762276443</v>
       </c>
       <c r="X38" t="n">
-        <v>1402.649240626466</v>
+        <v>1262.198433414759</v>
       </c>
       <c r="Y38" t="n">
-        <v>1102.221807752326</v>
+        <v>1262.198433414759</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>598.4338573105431</v>
+        <v>368.7963537409229</v>
       </c>
       <c r="C39" t="n">
-        <v>543.8429030758942</v>
+        <v>314.205399506274</v>
       </c>
       <c r="D39" t="n">
-        <v>413.7539356973746</v>
+        <v>280.1797083330133</v>
       </c>
       <c r="E39" t="n">
-        <v>277.3074448082623</v>
+        <v>239.7964936491599</v>
       </c>
       <c r="F39" t="n">
-        <v>152.8756386913941</v>
+        <v>169.1918834893966</v>
       </c>
       <c r="G39" t="n">
-        <v>129.7644229350063</v>
+        <v>50.01739152774991</v>
       </c>
       <c r="H39" t="n">
-        <v>50.0173915277499</v>
+        <v>50.01739152774991</v>
       </c>
       <c r="I39" t="n">
-        <v>31.11175524552884</v>
+        <v>31.11175524552886</v>
       </c>
       <c r="J39" t="n">
-        <v>31.47111788868132</v>
+        <v>226.2061128684087</v>
       </c>
       <c r="K39" t="n">
-        <v>416.4790890521007</v>
+        <v>311.535095193027</v>
       </c>
       <c r="L39" t="n">
-        <v>515.7223436365971</v>
+        <v>410.7783497775234</v>
       </c>
       <c r="M39" t="n">
-        <v>900.7303148000165</v>
+        <v>539.1725111876962</v>
       </c>
       <c r="N39" t="n">
-        <v>1041.888306809201</v>
+        <v>680.330503196881</v>
       </c>
       <c r="O39" t="n">
-        <v>1156.577425166265</v>
+        <v>795.0196215539447</v>
       </c>
       <c r="P39" t="n">
-        <v>1236.05906076096</v>
+        <v>1180.027592717364</v>
       </c>
       <c r="Q39" t="n">
-        <v>1555.587762276442</v>
+        <v>1525.154846740726</v>
       </c>
       <c r="R39" t="n">
-        <v>1555.587762276442</v>
+        <v>1555.587762276443</v>
       </c>
       <c r="S39" t="n">
         <v>1437.10162670298</v>
       </c>
       <c r="T39" t="n">
-        <v>1359.749576033477</v>
+        <v>1263.686299828219</v>
       </c>
       <c r="U39" t="n">
-        <v>1245.807954046752</v>
+        <v>1053.681401636235</v>
       </c>
       <c r="V39" t="n">
-        <v>1060.778903576922</v>
+        <v>831.1414000073019</v>
       </c>
       <c r="W39" t="n">
-        <v>926.7249339154677</v>
+        <v>601.0241541405887</v>
       </c>
       <c r="X39" t="n">
-        <v>833.4811324707382</v>
+        <v>507.7803526958593</v>
       </c>
       <c r="Y39" t="n">
-        <v>654.1669155462455</v>
+        <v>424.5294119766254</v>
       </c>
     </row>
     <row r="40">
@@ -7308,58 +7308,58 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>424.5567181516544</v>
+        <v>424.5567181516545</v>
       </c>
       <c r="C40" t="n">
-        <v>350.4148764229025</v>
+        <v>350.4148764229026</v>
       </c>
       <c r="D40" t="n">
         <v>290.8450395306762</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3495035951375</v>
+        <v>231.3495035951376</v>
       </c>
       <c r="F40" t="n">
         <v>170.0868450133694</v>
       </c>
       <c r="G40" t="n">
-        <v>98.63829486835139</v>
+        <v>98.63829486835142</v>
       </c>
       <c r="H40" t="n">
-        <v>45.82209770939029</v>
+        <v>45.82209770939031</v>
       </c>
       <c r="I40" t="n">
-        <v>31.11175524552884</v>
+        <v>31.11175524552886</v>
       </c>
       <c r="J40" t="n">
-        <v>31.11175524552884</v>
+        <v>52.76923824540338</v>
       </c>
       <c r="K40" t="n">
-        <v>197.4640990600672</v>
+        <v>219.1215820599418</v>
       </c>
       <c r="L40" t="n">
-        <v>469.7447881068696</v>
+        <v>491.4022711067441</v>
       </c>
       <c r="M40" t="n">
-        <v>723.3541657805627</v>
+        <v>791.7260756214837</v>
       </c>
       <c r="N40" t="n">
-        <v>1017.864594524329</v>
+        <v>1086.23650436525</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.392133275823</v>
+        <v>1351.764043116744</v>
       </c>
       <c r="P40" t="n">
-        <v>1491.250943432836</v>
+        <v>1555.587762276443</v>
       </c>
       <c r="Q40" t="n">
-        <v>1555.587762276442</v>
+        <v>1555.587762276443</v>
       </c>
       <c r="R40" t="n">
-        <v>1555.587762276442</v>
+        <v>1555.587762276443</v>
       </c>
       <c r="S40" t="n">
-        <v>1461.769956608633</v>
+        <v>1461.769956608634</v>
       </c>
       <c r="T40" t="n">
         <v>1325.285516878767</v>
@@ -7368,16 +7368,16 @@
         <v>1135.950486465033</v>
       </c>
       <c r="V40" t="n">
-        <v>966.034417491116</v>
+        <v>966.0344174911162</v>
       </c>
       <c r="W40" t="n">
-        <v>778.7672916275525</v>
+        <v>778.7672916275527</v>
       </c>
       <c r="X40" t="n">
-        <v>640.7502456157945</v>
+        <v>640.7502456157947</v>
       </c>
       <c r="Y40" t="n">
-        <v>513.7014606376968</v>
+        <v>513.7014606376969</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1081.02272589147</v>
+        <v>303.8744722340997</v>
       </c>
       <c r="C41" t="n">
-        <v>741.6697738623473</v>
+        <v>303.8744722340997</v>
       </c>
       <c r="D41" t="n">
-        <v>741.6697738623473</v>
+        <v>303.8744722340997</v>
       </c>
       <c r="E41" t="n">
-        <v>392.9087984468382</v>
+        <v>303.8744722340997</v>
       </c>
       <c r="F41" t="n">
-        <v>29.8369094447624</v>
+        <v>303.8744722340997</v>
       </c>
       <c r="G41" t="n">
-        <v>29.8369094447624</v>
+        <v>303.8744722340997</v>
       </c>
       <c r="H41" t="n">
-        <v>29.8369094447624</v>
+        <v>50.55985018515945</v>
       </c>
       <c r="I41" t="n">
-        <v>29.8369094447624</v>
+        <v>29.83690944476239</v>
       </c>
       <c r="J41" t="n">
-        <v>50.97711762159629</v>
+        <v>50.97711762159628</v>
       </c>
       <c r="K41" t="n">
-        <v>115.6408465049152</v>
+        <v>307.1002426339934</v>
       </c>
       <c r="L41" t="n">
-        <v>219.8480653503761</v>
+        <v>411.3074614794543</v>
       </c>
       <c r="M41" t="n">
-        <v>589.0798197293108</v>
+        <v>780.5392158583888</v>
       </c>
       <c r="N41" t="n">
-        <v>958.3115741082454</v>
+        <v>922.2832262701552</v>
       </c>
       <c r="O41" t="n">
-        <v>1327.54332848718</v>
+        <v>1047.460156104223</v>
       </c>
       <c r="P41" t="n">
-        <v>1411.953291471611</v>
+        <v>1131.870119088654</v>
       </c>
       <c r="Q41" t="n">
-        <v>1444.02937304592</v>
+        <v>1491.84547223812</v>
       </c>
       <c r="R41" t="n">
         <v>1491.84547223812</v>
       </c>
       <c r="S41" t="n">
-        <v>1491.84547223812</v>
+        <v>1416.860236529947</v>
       </c>
       <c r="T41" t="n">
-        <v>1491.84547223812</v>
+        <v>1254.425497113519</v>
       </c>
       <c r="U41" t="n">
-        <v>1369.306985720005</v>
+        <v>1052.627690536223</v>
       </c>
       <c r="V41" t="n">
-        <v>1081.02272589147</v>
+        <v>956.6810133968626</v>
       </c>
       <c r="W41" t="n">
-        <v>1081.02272589147</v>
+        <v>639.5045278330965</v>
       </c>
       <c r="X41" t="n">
-        <v>1081.02272589147</v>
+        <v>303.8744722340997</v>
       </c>
       <c r="Y41" t="n">
-        <v>1081.02272589147</v>
+        <v>303.8744722340997</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>447.4446308303946</v>
+        <v>447.4446308303947</v>
       </c>
       <c r="C42" t="n">
-        <v>350.6129498584332</v>
+        <v>350.6129498584334</v>
       </c>
       <c r="D42" t="n">
-        <v>274.34653194786</v>
+        <v>274.3465319478602</v>
       </c>
       <c r="E42" t="n">
-        <v>191.7225905266941</v>
+        <v>191.7225905266943</v>
       </c>
       <c r="F42" t="n">
         <v>121.1133338777726</v>
       </c>
       <c r="G42" t="n">
-        <v>55.76139138407238</v>
+        <v>55.76139138407234</v>
       </c>
       <c r="H42" t="n">
-        <v>29.8369094447624</v>
+        <v>29.83690944476239</v>
       </c>
       <c r="I42" t="n">
-        <v>29.8369094447624</v>
+        <v>29.83690944476239</v>
       </c>
       <c r="J42" t="n">
         <v>224.9312670676423</v>
@@ -7496,19 +7496,19 @@
         <v>594.1630214465769</v>
       </c>
       <c r="L42" t="n">
-        <v>963.3947758255115</v>
+        <v>693.4062760310733</v>
       </c>
       <c r="M42" t="n">
-        <v>1105.399919897343</v>
+        <v>821.800437441246</v>
       </c>
       <c r="N42" t="n">
-        <v>1246.557911906528</v>
+        <v>962.9584294504308</v>
       </c>
       <c r="O42" t="n">
-        <v>1361.247030263592</v>
+        <v>1077.647547807495</v>
       </c>
       <c r="P42" t="n">
-        <v>1440.728665858287</v>
+        <v>1440.728665858286</v>
       </c>
       <c r="Q42" t="n">
         <v>1461.412556702403</v>
@@ -7529,7 +7529,7 @@
         <v>982.6893078407645</v>
       </c>
       <c r="W42" t="n">
-        <v>806.3946114419978</v>
+        <v>806.3946114419979</v>
       </c>
       <c r="X42" t="n">
         <v>670.9100832599559</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718.9669595120754</v>
+        <v>513.7273115201433</v>
       </c>
       <c r="C43" t="n">
-        <v>602.584391046011</v>
+        <v>397.344743054079</v>
       </c>
       <c r="D43" t="n">
-        <v>500.7738274164721</v>
+        <v>295.5341794245402</v>
       </c>
       <c r="E43" t="n">
-        <v>399.037564743621</v>
+        <v>295.5341794245402</v>
       </c>
       <c r="F43" t="n">
-        <v>295.5341794245404</v>
+        <v>295.5341794245402</v>
       </c>
       <c r="G43" t="n">
-        <v>181.8449025422099</v>
+        <v>181.8449025422098</v>
       </c>
       <c r="H43" t="n">
-        <v>86.78797864593633</v>
+        <v>86.78797864593628</v>
       </c>
       <c r="I43" t="n">
-        <v>29.8369094447624</v>
+        <v>29.83690944476239</v>
       </c>
       <c r="J43" t="n">
-        <v>51.49439244463692</v>
+        <v>29.83690944476239</v>
       </c>
       <c r="K43" t="n">
-        <v>217.8467362591753</v>
+        <v>196.1892532593008</v>
       </c>
       <c r="L43" t="n">
-        <v>359.2880712275007</v>
+        <v>468.4699423061031</v>
       </c>
       <c r="M43" t="n">
-        <v>659.6118757422403</v>
+        <v>768.7937468208427</v>
       </c>
       <c r="N43" t="n">
-        <v>954.1223044860062</v>
+        <v>1018.459123329612</v>
       </c>
       <c r="O43" t="n">
-        <v>1219.6498432375</v>
+        <v>1283.986662081106</v>
       </c>
       <c r="P43" t="n">
-        <v>1427.508653394513</v>
+        <v>1491.84547223812</v>
       </c>
       <c r="Q43" t="n">
         <v>1491.84547223812</v>
       </c>
       <c r="R43" t="n">
-        <v>1455.140282008396</v>
+        <v>1491.84547223812</v>
       </c>
       <c r="S43" t="n">
-        <v>1319.081749603275</v>
+        <v>1491.84547223812</v>
       </c>
       <c r="T43" t="n">
-        <v>1319.081749603275</v>
+        <v>1318.35318620665</v>
       </c>
       <c r="U43" t="n">
-        <v>1319.081749603275</v>
+        <v>1086.777429055603</v>
       </c>
       <c r="V43" t="n">
-        <v>1106.924953892046</v>
+        <v>874.620633344374</v>
       </c>
       <c r="W43" t="n">
-        <v>877.4171012911696</v>
+        <v>645.1127807434981</v>
       </c>
       <c r="X43" t="n">
-        <v>877.4171012911696</v>
+        <v>645.1127807434981</v>
       </c>
       <c r="Y43" t="n">
-        <v>850.3524287354303</v>
+        <v>645.1127807434981</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1074.192076918495</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="C44" t="n">
-        <v>1074.192076918495</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="D44" t="n">
-        <v>750.5943354888993</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="E44" t="n">
-        <v>750.5943354888993</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="F44" t="n">
-        <v>387.5224464868235</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="G44" t="n">
-        <v>29.8369094447624</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="H44" t="n">
-        <v>29.8369094447624</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="I44" t="n">
-        <v>29.8369094447624</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="J44" t="n">
-        <v>50.97711762159629</v>
+        <v>312.129930093347</v>
       </c>
       <c r="K44" t="n">
-        <v>420.2088720005309</v>
+        <v>475.1614141863045</v>
       </c>
       <c r="L44" t="n">
-        <v>524.4160908459918</v>
+        <v>579.3686330317654</v>
       </c>
       <c r="M44" t="n">
-        <v>893.6478452249264</v>
+        <v>715.9043769174938</v>
       </c>
       <c r="N44" t="n">
-        <v>1250.182497845312</v>
+        <v>857.6483873292601</v>
       </c>
       <c r="O44" t="n">
-        <v>1375.35942767938</v>
+        <v>982.8253171633281</v>
       </c>
       <c r="P44" t="n">
-        <v>1459.769390663811</v>
+        <v>1067.235280147759</v>
       </c>
       <c r="Q44" t="n">
-        <v>1491.84547223812</v>
+        <v>1427.210633297225</v>
       </c>
       <c r="R44" t="n">
-        <v>1491.84547223812</v>
+        <v>1491.845472238119</v>
       </c>
       <c r="S44" t="n">
-        <v>1416.860236529948</v>
+        <v>1491.845472238119</v>
       </c>
       <c r="T44" t="n">
-        <v>1416.860236529948</v>
+        <v>1329.41073282169</v>
       </c>
       <c r="U44" t="n">
-        <v>1416.860236529948</v>
+        <v>1127.612926244394</v>
       </c>
       <c r="V44" t="n">
-        <v>1416.860236529948</v>
+        <v>839.3286664158593</v>
       </c>
       <c r="W44" t="n">
-        <v>1416.860236529948</v>
+        <v>839.3286664158593</v>
       </c>
       <c r="X44" t="n">
-        <v>1416.860236529948</v>
+        <v>503.6986108168625</v>
       </c>
       <c r="Y44" t="n">
-        <v>1074.192076918495</v>
+        <v>161.0304512054101</v>
       </c>
     </row>
     <row r="45">
@@ -7703,55 +7703,55 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>447.4446308303949</v>
+        <v>447.4446308303947</v>
       </c>
       <c r="C45" t="n">
-        <v>350.6129498584335</v>
+        <v>350.6129498584334</v>
       </c>
       <c r="D45" t="n">
-        <v>274.3465319478603</v>
+        <v>274.3465319478602</v>
       </c>
       <c r="E45" t="n">
-        <v>191.7225905266945</v>
+        <v>191.7225905266944</v>
       </c>
       <c r="F45" t="n">
         <v>121.1133338777726</v>
       </c>
       <c r="G45" t="n">
-        <v>55.76139138407238</v>
+        <v>55.76139138407233</v>
       </c>
       <c r="H45" t="n">
-        <v>29.8369094447624</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="I45" t="n">
-        <v>29.8369094447624</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="J45" t="n">
-        <v>224.9312670676423</v>
+        <v>224.9312670676422</v>
       </c>
       <c r="K45" t="n">
-        <v>276.3461111344304</v>
+        <v>355.6782938893945</v>
       </c>
       <c r="L45" t="n">
-        <v>375.5893657189268</v>
+        <v>454.9215484738908</v>
       </c>
       <c r="M45" t="n">
-        <v>503.9835271290996</v>
+        <v>583.3157098840636</v>
       </c>
       <c r="N45" t="n">
-        <v>702.2651571004175</v>
+        <v>952.5474642629981</v>
       </c>
       <c r="O45" t="n">
-        <v>1071.496911479352</v>
+        <v>1067.236582620062</v>
       </c>
       <c r="P45" t="n">
-        <v>1440.728665858287</v>
+        <v>1146.718218214757</v>
       </c>
       <c r="Q45" t="n">
-        <v>1461.412556702403</v>
+        <v>1491.845472238119</v>
       </c>
       <c r="R45" t="n">
-        <v>1491.84547223812</v>
+        <v>1491.845472238119</v>
       </c>
       <c r="S45" t="n">
         <v>1427.181886132603</v>
@@ -7760,19 +7760,19 @@
         <v>1307.589108725788</v>
       </c>
       <c r="U45" t="n">
-        <v>1151.406760001752</v>
+        <v>1151.406760001751</v>
       </c>
       <c r="V45" t="n">
-        <v>982.689307840765</v>
+        <v>982.6893078407645</v>
       </c>
       <c r="W45" t="n">
-        <v>806.3946114419981</v>
+        <v>806.3946114419978</v>
       </c>
       <c r="X45" t="n">
-        <v>670.9100832599562</v>
+        <v>670.9100832599559</v>
       </c>
       <c r="Y45" t="n">
-        <v>545.4184158034099</v>
+        <v>545.4184158034095</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>395.9490493350548</v>
+        <v>463.4555810955469</v>
       </c>
       <c r="C46" t="n">
-        <v>395.9490493350548</v>
+        <v>347.0730126294826</v>
       </c>
       <c r="D46" t="n">
-        <v>294.138485705516</v>
+        <v>245.2624489999438</v>
       </c>
       <c r="E46" t="n">
-        <v>192.4022230326649</v>
+        <v>143.5261863270928</v>
       </c>
       <c r="F46" t="n">
-        <v>88.89883771358431</v>
+        <v>143.5261863270928</v>
       </c>
       <c r="G46" t="n">
-        <v>88.89883771358431</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="H46" t="n">
-        <v>86.78797864593633</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="I46" t="n">
-        <v>29.8369094447624</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="J46" t="n">
-        <v>29.8369094447624</v>
+        <v>29.83690944476238</v>
       </c>
       <c r="K46" t="n">
         <v>196.1892532593008</v>
@@ -7821,37 +7821,37 @@
         <v>1063.304175564609</v>
       </c>
       <c r="O46" t="n">
-        <v>1219.6498432375</v>
+        <v>1328.831714316103</v>
       </c>
       <c r="P46" t="n">
         <v>1427.508653394513</v>
       </c>
       <c r="Q46" t="n">
-        <v>1491.84547223812</v>
+        <v>1491.845472238119</v>
       </c>
       <c r="R46" t="n">
         <v>1455.140282008396</v>
       </c>
       <c r="S46" t="n">
-        <v>1319.081749603275</v>
+        <v>1319.081749603274</v>
       </c>
       <c r="T46" t="n">
-        <v>1140.356583136096</v>
+        <v>1205.795210346417</v>
       </c>
       <c r="U46" t="n">
-        <v>908.7808259850493</v>
+        <v>1205.795210346417</v>
       </c>
       <c r="V46" t="n">
-        <v>696.6240302738199</v>
+        <v>993.6384146351878</v>
       </c>
       <c r="W46" t="n">
-        <v>696.6240302738199</v>
+        <v>764.1305620343119</v>
       </c>
       <c r="X46" t="n">
-        <v>696.6240302738199</v>
+        <v>764.1305620343119</v>
       </c>
       <c r="Y46" t="n">
-        <v>527.3345185584097</v>
+        <v>594.8410503189017</v>
       </c>
     </row>
   </sheetData>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.22989889993899</v>
+        <v>37.22989889993897</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>36.75559504847752</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>38.52685453358907</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>65.26309054583244</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>10.01935903623379</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>40.27348618271472</v>
+        <v>40.27348618271471</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.4725364634484</v>
+        <v>30.59629100902969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>159.5402202135478</v>
+        <v>150.7102217633529</v>
       </c>
       <c r="M13" t="n">
-        <v>156.2283775669154</v>
+        <v>156.2283775669153</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>151.6610415638978</v>
       </c>
       <c r="O13" t="n">
-        <v>42.10347638692893</v>
+        <v>167.2460492741541</v>
       </c>
       <c r="P13" t="n">
-        <v>181.7625295178081</v>
+        <v>0.6518446719111495</v>
       </c>
       <c r="Q13" t="n">
-        <v>101.9350150692923</v>
+        <v>36.94832936867972</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.22989889993899</v>
+        <v>37.22989889993897</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>75.28244958206642</v>
       </c>
       <c r="K15" t="n">
-        <v>75.28244958206662</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>40.27348618271472</v>
+        <v>40.27348618271471</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.5962910090297</v>
+        <v>30.59629100902969</v>
       </c>
       <c r="K16" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>159.5402202135478</v>
       </c>
       <c r="M16" t="n">
         <v>156.2283775669154</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>87.10115451114773</v>
+        <v>159.0678954958704</v>
       </c>
       <c r="Q16" t="n">
-        <v>101.9350150692923</v>
+        <v>36.94832936867972</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>63.09842852278373</v>
+        <v>63.09842852278447</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.22989889993899</v>
+        <v>37.22989889993897</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>16.56326583769075</v>
+        <v>21.61910114805502</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>67.35518522398985</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>54.46242704316961</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>116.761776956796</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>40.27348618271472</v>
+        <v>40.27348618271471</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>30.5962910090297</v>
+        <v>30.59629100902969</v>
       </c>
       <c r="K19" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>175.4757927231283</v>
+        <v>166.0019327573952</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>172.1639500764961</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>167.5966140734786</v>
       </c>
       <c r="O19" t="n">
-        <v>183.1816217837347</v>
+        <v>183.1816217837349</v>
       </c>
       <c r="P19" t="n">
-        <v>99.43158765788145</v>
+        <v>0.6518446719111495</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.9350150692923</v>
+        <v>36.94832936867972</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>63.09842852278373</v>
+        <v>63.09842852278447</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.22989889993899</v>
+        <v>37.22989889993897</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>54.46242704316961</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>107.6405593819052</v>
       </c>
       <c r="Q21" t="n">
-        <v>53.17813233873478</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9558,25 +9558,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.5962910090297</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K22" t="n">
-        <v>101.0152470567823</v>
+        <v>79.13900160236388</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>172.163950076496</v>
+        <v>172.1639500764961</v>
       </c>
       <c r="N22" t="n">
-        <v>167.5966140734784</v>
+        <v>167.5966140734786</v>
       </c>
       <c r="O22" t="n">
-        <v>183.1816217837347</v>
+        <v>183.1816217837349</v>
       </c>
       <c r="P22" t="n">
-        <v>0.6518446719111637</v>
+        <v>0.6518446719111495</v>
       </c>
       <c r="Q22" t="n">
         <v>101.9350150692923</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>504.6907275530691</v>
       </c>
       <c r="L23" t="n">
         <v>464.7478083993904</v>
       </c>
       <c r="M23" t="n">
-        <v>204.728806706703</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>426.8318573223142</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>443.5662821482721</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>306.6454989557853</v>
       </c>
       <c r="R23" t="n">
-        <v>37.22989889993899</v>
+        <v>37.22989889993897</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>469.7619137134959</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>454.1600311149429</v>
       </c>
       <c r="P24" t="n">
-        <v>405.1089518377022</v>
+        <v>166.8126753313449</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>40.27348618271472</v>
+        <v>40.27348618271471</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>504.6907275530691</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>464.7478083993904</v>
       </c>
       <c r="M26" t="n">
-        <v>432.0927326011404</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>426.8318573223141</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>443.5662821482721</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>237.3838825049532</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>241.3577828538717</v>
       </c>
       <c r="R26" t="n">
-        <v>37.22989889993899</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>469.7619137134959</v>
       </c>
       <c r="M27" t="n">
-        <v>243.8502329247781</v>
+        <v>46.40436055826328</v>
       </c>
       <c r="N27" t="n">
-        <v>427.4237951026995</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>454.160031114943</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>489.7231450163256</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>464.7478083993904</v>
       </c>
       <c r="M29" t="n">
-        <v>272.9775135747288</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>426.8318573223142</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>443.5662821482721</v>
+        <v>414.8371249774895</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10199,22 +10199,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>213.1099142018314</v>
+        <v>440.3165532835197</v>
       </c>
       <c r="N30" t="n">
         <v>427.4237951026995</v>
       </c>
       <c r="O30" t="n">
-        <v>454.160031114943</v>
+        <v>419.6962869046014</v>
       </c>
       <c r="P30" t="n">
-        <v>489.7231450163256</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>71.01380490566048</v>
+        <v>40.27348618271471</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10363,13 +10363,13 @@
         <v>426.8318573223141</v>
       </c>
       <c r="O32" t="n">
-        <v>443.566282148272</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>172.0961664030395</v>
+        <v>284.4510631218602</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>293.2568246575838</v>
+        <v>469.7619137134959</v>
       </c>
       <c r="M33" t="n">
-        <v>440.3165532835197</v>
+        <v>4.810099182942935</v>
       </c>
       <c r="N33" t="n">
-        <v>427.4237951026995</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>454.160031114943</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>489.7231450163256</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>40.2734861827138</v>
+        <v>40.27348618271471</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,19 +10594,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>9.603374780409098</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>245.7211724764173</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>303.6343516959481</v>
+        <v>227.7475135233228</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>37.22989889993897</v>
@@ -10664,31 +10664,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>336.9627546430618</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.651228867599</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>44.97575083863114</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>273.0493462690461</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>297.2621530663051</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>40.27348618271471</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,13 +10743,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>30.59629100902969</v>
+        <v>48.39668697121114</v>
       </c>
       <c r="K37" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L37" t="n">
-        <v>206.2742446663941</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
         <v>278.4750710187352</v>
@@ -10764,7 +10764,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>36.94832936867972</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10825,19 +10825,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>323.5800427071724</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>235.3788562456027</v>
       </c>
       <c r="M38" t="n">
-        <v>250.9820477552435</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>245.7211724764173</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>62.25567872111378</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10901,16 +10901,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>336.9627546430619</v>
+        <v>34.25670531093951</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>259.2058684376229</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>308.6124601704289</v>
       </c>
       <c r="Q39" t="n">
-        <v>301.863445122591</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
-        <v>40.27348618271471</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.59629100902969</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
@@ -10989,7 +10989,7 @@
         <v>253.4605344048249</v>
       </c>
       <c r="M40" t="n">
-        <v>231.2887812803044</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N40" t="n">
         <v>268.0356382773604</v>
@@ -10998,10 +10998,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>210.6102387699041</v>
+        <v>206.5343892776678</v>
       </c>
       <c r="Q40" t="n">
-        <v>101.9350150692923</v>
+        <v>36.94832936867972</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>193.3933294233113</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11071,19 +11071,19 @@
         <v>235.0464752456629</v>
       </c>
       <c r="N41" t="n">
-        <v>229.7855999668367</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>246.5200247927946</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
-        <v>85.52898899307051</v>
+        <v>37.22989889993897</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,13 +11141,13 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>321.0271821334813</v>
+        <v>321.0271821334812</v>
       </c>
       <c r="L42" t="n">
-        <v>272.7156563580185</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>13.74846733500871</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>286.464123693027</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11217,19 +11217,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>30.59629100902969</v>
       </c>
       <c r="K43" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>121.2995706891916</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N43" t="n">
-        <v>268.0356382773604</v>
+        <v>222.7376057167581</v>
       </c>
       <c r="O43" t="n">
         <v>254.3449995307766</v>
@@ -11238,7 +11238,7 @@
         <v>210.6102387699041</v>
       </c>
       <c r="Q43" t="n">
-        <v>101.9350150692923</v>
+        <v>36.94832936867972</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>307.6444701975916</v>
+        <v>99.36136889862479</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>235.0464752456629</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>216.9602446551714</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>37.22989889993897</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>80.13351793430711</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>57.70064440619498</v>
+        <v>230.3775377472219</v>
       </c>
       <c r="O45" t="n">
-        <v>257.1137737594655</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>292.6768876608481</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
-        <v>71.01380490566048</v>
+        <v>40.27348618271471</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11469,10 +11469,10 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>144.060281269562</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>210.6102387699041</v>
+        <v>100.3255205086889</v>
       </c>
       <c r="Q46" t="n">
         <v>101.9350150692923</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>272.8677970732651</v>
+        <v>106.7971821816152</v>
       </c>
       <c r="C11" t="n">
-        <v>280.6618152553278</v>
+        <v>245.5900849094094</v>
       </c>
       <c r="D11" t="n">
-        <v>273.0047862687281</v>
+        <v>91.89410142283123</v>
       </c>
       <c r="E11" t="n">
-        <v>289.9757584078501</v>
+        <v>108.8650735619532</v>
       </c>
       <c r="F11" t="n">
-        <v>304.1435628585511</v>
+        <v>304.1435628585512</v>
       </c>
       <c r="G11" t="n">
-        <v>298.8110744181366</v>
+        <v>298.8110744181367</v>
       </c>
       <c r="H11" t="n">
         <v>195.483868574947</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>18.93777609758675</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>105.5127847687607</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>144.482221258019</v>
       </c>
       <c r="V11" t="n">
-        <v>48.99312513084902</v>
+        <v>230.103809976746</v>
       </c>
       <c r="W11" t="n">
-        <v>77.59642860872768</v>
+        <v>258.7071134546246</v>
       </c>
       <c r="X11" t="n">
         <v>276.9761477895029</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.8331859159372</v>
+        <v>283.9438707618341</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>74.77400727761747</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>59.92113552789988</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>45.4948507397396</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>45.42129279261871</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>47.17074421238598</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>38.80874740380698</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>79.40033982756643</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>121.6403075490033</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>173.9623923260322</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>67.21820958269508</v>
+        <v>95.94895679409056</v>
       </c>
       <c r="X13" t="n">
         <v>123.1575877680759</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>112.2990093447523</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106.7971821816152</v>
+        <v>233.8983605840069</v>
       </c>
       <c r="C14" t="n">
-        <v>280.6618152553278</v>
+        <v>280.661815255328</v>
       </c>
       <c r="D14" t="n">
         <v>273.0047862687281</v>
       </c>
       <c r="E14" t="n">
-        <v>289.9757584078501</v>
+        <v>108.8650735619532</v>
       </c>
       <c r="F14" t="n">
-        <v>304.1435628585511</v>
+        <v>123.0328780126543</v>
       </c>
       <c r="G14" t="n">
-        <v>227.1108804843401</v>
+        <v>117.7003895722398</v>
       </c>
       <c r="H14" t="n">
         <v>195.483868574947</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>18.9377760975868</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>144.4822212580191</v>
       </c>
       <c r="V14" t="n">
-        <v>48.99312513084902</v>
+        <v>230.103809976746</v>
       </c>
       <c r="W14" t="n">
         <v>258.7071134546246</v>
       </c>
       <c r="X14" t="n">
-        <v>276.9761477895029</v>
+        <v>276.976147789503</v>
       </c>
       <c r="Y14" t="n">
         <v>283.9438707618341</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>59.92113552789985</v>
+        <v>59.92113552789991</v>
       </c>
       <c r="D16" t="n">
-        <v>45.49485073973958</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>47.17074421238596</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>43.65126928127189</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.08395125565832</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>79.40033982756643</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>173.9623923260323</v>
       </c>
       <c r="V16" t="n">
         <v>154.7376205006132</v>
       </c>
       <c r="W16" t="n">
-        <v>93.22135462524069</v>
+        <v>171.9151668213634</v>
       </c>
       <c r="X16" t="n">
-        <v>123.1575877680759</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23734,13 +23734,13 @@
         <v>268.9700909299253</v>
       </c>
       <c r="C17" t="n">
-        <v>261.7240391577411</v>
+        <v>64.67778180226338</v>
       </c>
       <c r="D17" t="n">
-        <v>57.02075281566388</v>
+        <v>254.0670101711414</v>
       </c>
       <c r="E17" t="n">
-        <v>184.0546475027327</v>
+        <v>271.0379823102633</v>
       </c>
       <c r="F17" t="n">
         <v>285.2057867609644</v>
@@ -23749,7 +23749,7 @@
         <v>279.8732983205499</v>
       </c>
       <c r="H17" t="n">
-        <v>176.5460924773602</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>125.5444451604322</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>211.1660338791592</v>
+        <v>32.18072199846546</v>
       </c>
       <c r="W17" t="n">
-        <v>42.72308000156036</v>
+        <v>239.7693373570378</v>
       </c>
       <c r="X17" t="n">
         <v>258.0383716919162</v>
       </c>
       <c r="Y17" t="n">
-        <v>67.95983730876983</v>
+        <v>265.0060946642473</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.83623118003069</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>28.23296811479921</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>60.46256372997968</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>102.7025314514165</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>155.0246162284455</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>28.89770356390086</v>
+        <v>121.1073818116807</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,19 +23971,19 @@
         <v>268.9700909299253</v>
       </c>
       <c r="C20" t="n">
-        <v>261.7240391577411</v>
+        <v>64.67778180226338</v>
       </c>
       <c r="D20" t="n">
         <v>254.0670101711414</v>
       </c>
       <c r="E20" t="n">
-        <v>73.99172495478584</v>
+        <v>271.0379823102633</v>
       </c>
       <c r="F20" t="n">
         <v>285.2057867609644</v>
       </c>
       <c r="G20" t="n">
-        <v>82.82704096507243</v>
+        <v>106.3149548418451</v>
       </c>
       <c r="H20" t="n">
         <v>176.5460924773602</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>86.57500867117393</v>
+        <v>86.57500867117395</v>
       </c>
       <c r="U20" t="n">
-        <v>125.5444451604322</v>
+        <v>125.5444451604323</v>
       </c>
       <c r="V20" t="n">
         <v>211.1660338791592</v>
       </c>
       <c r="W20" t="n">
-        <v>239.7693373570378</v>
+        <v>42.72308000156011</v>
       </c>
       <c r="X20" t="n">
-        <v>60.99211433643868</v>
+        <v>60.99211433643842</v>
       </c>
       <c r="Y20" t="n">
-        <v>91.44775118554281</v>
+        <v>265.0060946642473</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>55.83623118003071</v>
       </c>
       <c r="C22" t="n">
-        <v>40.9833594303131</v>
+        <v>40.98335943031312</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>26.55707464215284</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>26.48351669503195</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>28.23296811479922</v>
       </c>
       <c r="G22" t="n">
-        <v>38.31700076241655</v>
+        <v>38.31700076241656</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>19.87097130622024</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>135.7998444030264</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>61.03179344437092</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>39.8508759091615</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>143.956535127795</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>254.0670101711414</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>101.0555588358127</v>
+        <v>211.1660338791592</v>
       </c>
       <c r="W23" t="n">
         <v>239.7693373570378</v>
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>335.7337026867568</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>328.4876509145726</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>320.8306219279729</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>243.3097042341917</v>
       </c>
       <c r="I26" t="n">
-        <v>13.04393973873397</v>
+        <v>13.04393973873401</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.76361175683145</v>
+        <v>66.76361175683149</v>
       </c>
       <c r="T26" t="n">
-        <v>144.089243588274</v>
+        <v>153.3386204280054</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>192.3080569172637</v>
       </c>
       <c r="V26" t="n">
-        <v>277.9296456359907</v>
+        <v>94.55734814428561</v>
       </c>
       <c r="W26" t="n">
         <v>306.5329491138693</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>331.7697064210788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24682,7 +24682,7 @@
         <v>335.7337026867568</v>
       </c>
       <c r="C29" t="n">
-        <v>172.2015773242842</v>
+        <v>328.4876509145726</v>
       </c>
       <c r="D29" t="n">
         <v>320.8306219279728</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>13.04393973873398</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.76361175683147</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>89.74165534507279</v>
       </c>
       <c r="U29" t="n">
-        <v>192.3080569172637</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>286.4840740522926</v>
       </c>
       <c r="E32" t="n">
-        <v>303.4550461914146</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>317.6228506421157</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>312.2903622017012</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>146.0697385327684</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.453198569170688</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>118.9920725523252</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>157.9615090415835</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>243.5830977603105</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>272.1864012381891</v>
       </c>
       <c r="X32" t="n">
-        <v>290.4554355730674</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>294.1411030388924</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>286.4840740522926</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>208.9631563585115</v>
+        <v>76.58251652517006</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>21.89520174241684</v>
+        <v>157.9615090415835</v>
       </c>
       <c r="V35" t="n">
         <v>243.5830977603105</v>
@@ -25219,7 +25219,7 @@
         <v>272.1864012381891</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>290.4554355730674</v>
       </c>
       <c r="Y35" t="n">
         <v>297.4231585453986</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>135.9716335025719</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>317.6228506421157</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>295.2176247388789</v>
       </c>
       <c r="H38" t="n">
         <v>208.9631563585115</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>32.41706388115126</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>118.9920725523252</v>
       </c>
       <c r="U38" t="n">
         <v>157.9615090415835</v>
@@ -25456,10 +25456,10 @@
         <v>272.1864012381891</v>
       </c>
       <c r="X38" t="n">
-        <v>290.4554355730674</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>297.4231585453986</v>
       </c>
     </row>
     <row r="39">
@@ -25630,25 +25630,25 @@
         <v>343.2054742810159</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>335.9594225088317</v>
       </c>
       <c r="D41" t="n">
-        <v>328.302393522232</v>
+        <v>328.3023935222319</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>345.2733656613539</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>359.441170112055</v>
       </c>
       <c r="G41" t="n">
         <v>354.1086816716405</v>
       </c>
       <c r="H41" t="n">
-        <v>250.7814758284508</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>20.51571133299313</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>74.2353833510906</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>160.8103920222646</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>78.46672685858951</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>190.4142068622833</v>
       </c>
       <c r="W41" t="n">
-        <v>314.0047207081284</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>332.2737550430068</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>339.2414780153379</v>
@@ -25794,10 +25794,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>100.7189000461225</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>102.4683514658898</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>36.33813832742618</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>134.6979470810703</v>
       </c>
       <c r="T43" t="n">
-        <v>176.9379148025072</v>
+        <v>5.180551631351989</v>
       </c>
       <c r="U43" t="n">
-        <v>229.2599995795361</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>178.4551950215798</v>
+        <v>178.4551950215797</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.8025907680742</v>
+        <v>167.5966165982561</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.2054742810159</v>
+        <v>213.3238679379746</v>
       </c>
       <c r="C44" t="n">
         <v>335.9594225088317</v>
       </c>
       <c r="D44" t="n">
-        <v>7.940629506932169</v>
+        <v>328.3023935222319</v>
       </c>
       <c r="E44" t="n">
         <v>345.2733656613539</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.441170112055</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>354.1086816716405</v>
       </c>
       <c r="H44" t="n">
         <v>250.7814758284508</v>
       </c>
       <c r="I44" t="n">
-        <v>20.51571133299313</v>
+        <v>20.51571133299309</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>74.23538335109058</v>
       </c>
       <c r="T44" t="n">
-        <v>160.8103920222646</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>199.7798285115229</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>285.4014172302498</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>314.0047207081284</v>
       </c>
       <c r="X44" t="n">
-        <v>332.2737550430068</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>115.2187427814037</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.4683514658898</v>
       </c>
       <c r="G46" t="n">
-        <v>112.5523841135072</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>92.01660418033934</v>
+        <v>94.1063546573108</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>56.38155850916215</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>64.78424093821873</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>229.2599995795361</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>227.2127740748672</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>178.4551950215798</v>
+        <v>178.4551950215797</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>390102.1848905082</v>
+        <v>390102.1848905081</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>419903.2680832054</v>
+        <v>419903.2680832056</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>419903.2680832055</v>
+        <v>419903.2680832056</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>606309.2606978472</v>
+        <v>606309.2606978471</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>549729.5107890851</v>
+        <v>549729.5107890852</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>549729.5107890852</v>
+        <v>549729.5107890853</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>579215.078705981</v>
+        <v>579215.0787059809</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>494909.9597348907</v>
+        <v>494909.9597348908</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>437607.328377418</v>
+        <v>437607.3283774178</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>719596.8852588685</v>
+        <v>719596.8852588683</v>
       </c>
       <c r="C2" t="n">
-        <v>719596.8852588682</v>
+        <v>719596.8852588683</v>
       </c>
       <c r="D2" t="n">
-        <v>719596.8852588682</v>
+        <v>719596.8852588683</v>
       </c>
       <c r="E2" t="n">
         <v>504182.6806974682</v>
       </c>
       <c r="F2" t="n">
-        <v>504182.6806974682</v>
+        <v>504182.680697468</v>
       </c>
       <c r="G2" t="n">
-        <v>538082.9569303249</v>
+        <v>538082.9569303248</v>
       </c>
       <c r="H2" t="n">
-        <v>538082.9569303249</v>
+        <v>538082.9569303246</v>
       </c>
       <c r="I2" t="n">
-        <v>659922.2476656557</v>
+        <v>659922.2476656552</v>
       </c>
       <c r="J2" t="n">
-        <v>584482.5811206396</v>
+        <v>584482.5811206399</v>
       </c>
       <c r="K2" t="n">
-        <v>584482.5811206397</v>
+        <v>584482.5811206398</v>
       </c>
       <c r="L2" t="n">
-        <v>623796.6716765008</v>
+        <v>623796.6716765005</v>
       </c>
       <c r="M2" t="n">
+        <v>567849.4657548041</v>
+      </c>
+      <c r="N2" t="n">
         <v>567849.4657548039</v>
-      </c>
-      <c r="N2" t="n">
-        <v>567849.4657548043</v>
       </c>
       <c r="O2" t="n">
         <v>497280.45863558</v>
       </c>
       <c r="P2" t="n">
-        <v>497280.4586355799</v>
+        <v>497280.4586355797</v>
       </c>
     </row>
     <row r="3">
@@ -26380,22 +26380,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>19517.92226935778</v>
+        <v>19517.92226935789</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99178.25995575829</v>
+        <v>99178.25995575819</v>
       </c>
       <c r="J3" t="n">
-        <v>33454.65557595148</v>
+        <v>33454.65557595145</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42627.45917861356</v>
+        <v>42627.45917861359</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>396329.2500935792</v>
       </c>
       <c r="E4" t="n">
-        <v>144602.9856235531</v>
+        <v>144602.985623553</v>
       </c>
       <c r="F4" t="n">
-        <v>144602.9856235531</v>
+        <v>144602.985623553</v>
       </c>
       <c r="G4" t="n">
         <v>163188.360462125</v>
@@ -26441,7 +26441,7 @@
         <v>216143.8242452692</v>
       </c>
       <c r="J4" t="n">
-        <v>173235.3402388601</v>
+        <v>173235.34023886</v>
       </c>
       <c r="K4" t="n">
         <v>173235.34023886</v>
@@ -26453,7 +26453,7 @@
         <v>170982.7642457942</v>
       </c>
       <c r="N4" t="n">
-        <v>170982.7642457942</v>
+        <v>170982.7642457943</v>
       </c>
       <c r="O4" t="n">
         <v>131468.0851144138</v>
@@ -26484,10 +26484,10 @@
         <v>29023.03178216591</v>
       </c>
       <c r="G5" t="n">
-        <v>31583.99448949643</v>
+        <v>31583.99448949645</v>
       </c>
       <c r="H5" t="n">
-        <v>31583.99448949643</v>
+        <v>31583.99448949645</v>
       </c>
       <c r="I5" t="n">
         <v>54260.04566751585</v>
@@ -26505,7 +26505,7 @@
         <v>40523.24588546081</v>
       </c>
       <c r="N5" t="n">
-        <v>40523.24588546081</v>
+        <v>40523.24588546083</v>
       </c>
       <c r="O5" t="n">
         <v>36038.73877735998</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>289640.0351652892</v>
+        <v>289635.7055975027</v>
       </c>
       <c r="C6" t="n">
-        <v>289640.035165289</v>
+        <v>289635.7055975028</v>
       </c>
       <c r="D6" t="n">
-        <v>289640.035165289</v>
+        <v>289635.7055975027</v>
       </c>
       <c r="E6" t="n">
-        <v>-137757.5522256167</v>
+        <v>-138300.4173048065</v>
       </c>
       <c r="F6" t="n">
-        <v>330556.6632917491</v>
+        <v>330013.7982125591</v>
       </c>
       <c r="G6" t="n">
-        <v>323792.6797093457</v>
+        <v>323334.5653207377</v>
       </c>
       <c r="H6" t="n">
-        <v>343310.6019787035</v>
+        <v>342852.4875900954</v>
       </c>
       <c r="I6" t="n">
-        <v>290340.1177971124</v>
+        <v>290186.6016353425</v>
       </c>
       <c r="J6" t="n">
-        <v>329145.2897150973</v>
+        <v>328803.1743869658</v>
       </c>
       <c r="K6" t="n">
-        <v>362599.9452910489</v>
+        <v>362257.8299629171</v>
       </c>
       <c r="L6" t="n">
-        <v>334109.9020890729</v>
+        <v>333866.0719873302</v>
       </c>
       <c r="M6" t="n">
-        <v>356343.4556235488</v>
+        <v>355959.7575070024</v>
       </c>
       <c r="N6" t="n">
-        <v>356343.4556235493</v>
+        <v>355959.7575070022</v>
       </c>
       <c r="O6" t="n">
-        <v>329773.6347438062</v>
+        <v>329213.5141094616</v>
       </c>
       <c r="P6" t="n">
-        <v>329773.6347438061</v>
+        <v>329213.5141094613</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>127.5197073243576</v>
       </c>
       <c r="J2" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="K2" t="n">
         <v>60.75609556752611</v>
@@ -26724,10 +26724,10 @@
         <v>95.1026434432063</v>
       </c>
       <c r="O2" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="P2" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
     </row>
     <row r="3">
@@ -26746,25 +26746,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407.4829251023845</v>
+        <v>407.4829251023846</v>
       </c>
       <c r="F3" t="n">
-        <v>407.4829251023845</v>
+        <v>407.4829251023846</v>
       </c>
       <c r="G3" t="n">
-        <v>407.4829251023845</v>
+        <v>407.4829251023846</v>
       </c>
       <c r="H3" t="n">
-        <v>407.4829251023845</v>
+        <v>407.4829251023846</v>
       </c>
       <c r="I3" t="n">
-        <v>407.4829251023845</v>
+        <v>407.4829251023846</v>
       </c>
       <c r="J3" t="n">
         <v>407.4829251023845</v>
       </c>
       <c r="K3" t="n">
-        <v>407.4829251023845</v>
+        <v>407.4829251023846</v>
       </c>
       <c r="L3" t="n">
         <v>407.4829251023846</v>
@@ -26804,10 +26804,10 @@
         <v>181.1106848458969</v>
       </c>
       <c r="G4" t="n">
-        <v>197.0462573554775</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="H4" t="n">
-        <v>197.0462573554775</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="I4" t="n">
         <v>570.0076254150074</v>
@@ -26825,13 +26825,13 @@
         <v>388.8969405691105</v>
       </c>
       <c r="N4" t="n">
-        <v>388.8969405691105</v>
+        <v>388.8969405691107</v>
       </c>
       <c r="O4" t="n">
         <v>372.9613680595299</v>
       </c>
       <c r="P4" t="n">
-        <v>372.9613680595299</v>
+        <v>372.9613680595298</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>18.93777609758675</v>
+        <v>18.93777609758679</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.81831946993935</v>
+        <v>41.81831946993931</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>53.28432397326694</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407.4829251023845</v>
+        <v>407.4829251023846</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.93557250958054</v>
+        <v>15.93557250958082</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>372.9613680595301</v>
+        <v>372.9613680595297</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>18.93777609758675</v>
+        <v>18.93777609758679</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.81831946993935</v>
+        <v>41.81831946993931</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>15.93557250958054</v>
+        <v>15.93557250958082</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28110,7 +28110,7 @@
         <v>108.5819312267708</v>
       </c>
       <c r="I11" t="n">
-        <v>73.80003530626009</v>
+        <v>73.80003530626007</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28347,7 +28347,7 @@
         <v>108.5819312267708</v>
       </c>
       <c r="I14" t="n">
-        <v>73.80003530626009</v>
+        <v>73.80003530626007</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28414,7 +28414,7 @@
         <v>108.5819312267708</v>
       </c>
       <c r="E15" t="n">
-        <v>108.5819312267708</v>
+        <v>108.5819312267715</v>
       </c>
       <c r="F15" t="n">
         <v>108.5819312267708</v>
@@ -28584,7 +28584,7 @@
         <v>127.5197073243576</v>
       </c>
       <c r="I17" t="n">
-        <v>73.80003530626009</v>
+        <v>73.80003530626007</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28642,7 +28642,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.5197073243576</v>
       </c>
       <c r="C18" t="n">
         <v>127.5197073243576</v>
@@ -28651,10 +28651,10 @@
         <v>127.5197073243576</v>
       </c>
       <c r="E18" t="n">
-        <v>127.5197073243576</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
         <v>117.9827470420302</v>
@@ -28663,7 +28663,7 @@
         <v>78.94956109318385</v>
       </c>
       <c r="I18" t="n">
-        <v>18.71657991939885</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28693,13 +28693,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>84.06222319159215</v>
+        <v>117.301274217728</v>
       </c>
       <c r="T18" t="n">
         <v>127.5197073243576</v>
       </c>
       <c r="U18" t="n">
-        <v>127.5197073243576</v>
+        <v>117.3294554862777</v>
       </c>
       <c r="V18" t="n">
         <v>127.5197073243576</v>
@@ -28711,7 +28711,7 @@
         <v>127.5197073243576</v>
       </c>
       <c r="Y18" t="n">
-        <v>127.5197073243576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -28821,7 +28821,7 @@
         <v>127.5197073243576</v>
       </c>
       <c r="I20" t="n">
-        <v>73.80003530626009</v>
+        <v>73.80003530626007</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28888,16 +28888,16 @@
         <v>127.5197073243576</v>
       </c>
       <c r="E21" t="n">
-        <v>78.85748217792295</v>
+        <v>127.5197073243576</v>
       </c>
       <c r="F21" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>117.9827470420302</v>
       </c>
       <c r="H21" t="n">
-        <v>78.94956109318385</v>
+        <v>35.49207696041758</v>
       </c>
       <c r="I21" t="n">
         <v>18.71657991939885</v>
@@ -29058,7 +29058,7 @@
         <v>127.5197073243576</v>
       </c>
       <c r="I23" t="n">
-        <v>73.80003530626009</v>
+        <v>73.80003530626007</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29207,13 +29207,13 @@
         <v>127.5197073243576</v>
       </c>
       <c r="F25" t="n">
-        <v>127.5197073243576</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>127.5197073243576</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>127.5197073243576</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>109.6658824824291</v>
@@ -29246,13 +29246,13 @@
         <v>63.6109674802716</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>127.5197073243576</v>
       </c>
       <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>127.5197073243576</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>127.5197073243576</v>
@@ -29261,10 +29261,10 @@
         <v>127.5197073243576</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>127.5197073243576</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>127.5197073243576</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="C26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="D26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="E26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="F26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="G26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="H26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="I26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="T26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="U26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="V26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="W26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="X26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="Y26" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="C28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="D28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="E28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="F28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="G28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="H28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="I28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="J28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="K28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="L28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="M28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="N28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="O28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="P28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="Q28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="R28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="S28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="T28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="U28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="V28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="W28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="X28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
       <c r="Y28" t="n">
-        <v>60.75609556752612</v>
+        <v>60.75609556752608</v>
       </c>
     </row>
     <row r="29">
@@ -29957,7 +29957,7 @@
         <v>89.62246230069317</v>
       </c>
       <c r="S34" t="n">
-        <v>27.41445270069485</v>
+        <v>95.1026434432063</v>
       </c>
       <c r="T34" t="n">
         <v>95.1026434432063</v>
@@ -29975,7 +29975,7 @@
         <v>95.1026434432063</v>
       </c>
       <c r="Y34" t="n">
-        <v>95.1026434432063</v>
+        <v>27.41445270069497</v>
       </c>
     </row>
     <row r="35">
@@ -30073,7 +30073,7 @@
         <v>95.1026434432063</v>
       </c>
       <c r="E36" t="n">
-        <v>95.1026434432063</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -30082,10 +30082,10 @@
         <v>95.1026434432063</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>78.94956109318385</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>18.71657991939885</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30118,22 +30118,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>34.57234407813593</v>
+      </c>
+      <c r="X36" t="n">
         <v>95.1026434432063</v>
       </c>
-      <c r="U36" t="n">
-        <v>37.13584164751177</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
+      <c r="Y36" t="n">
         <v>95.1026434432063</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30307,19 +30307,19 @@
         <v>95.1026434432063</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>95.1026434432063</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>95.1026434432063</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>53.28892399753389</v>
       </c>
       <c r="G39" t="n">
-        <v>95.1026434432063</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>78.94956109318385</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30355,22 +30355,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>95.1026434432063</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>95.1026434432063</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>37.13584164751188</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>95.1026434432063</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>95.1026434432063</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>95.1026434432063</v>
       </c>
     </row>
     <row r="40">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="C41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="D41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="E41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="F41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="G41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="H41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="I41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="T41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="U41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="V41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="W41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="X41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="Y41" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
     </row>
     <row r="42">
@@ -30538,25 +30538,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="C42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="D42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="E42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="F42" t="n">
-        <v>53.28432397326722</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="G42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="H42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="I42" t="n">
         <v>18.71657991939885</v>
@@ -30589,25 +30589,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="T42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="U42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="V42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="W42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="X42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="Y42" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
     </row>
     <row r="43">
@@ -30617,28 +30617,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="C43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="D43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="E43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="F43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="G43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="H43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="I43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30665,28 +30665,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="S43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="T43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="U43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="V43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="W43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="X43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="C44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="D44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="E44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="F44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="G44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="H44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="I44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="T44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="U44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="V44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="W44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="X44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="Y44" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
     </row>
     <row r="45">
@@ -30775,25 +30775,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="C45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="D45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="E45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="F45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="G45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="H45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="I45" t="n">
         <v>18.71657991939885</v>
@@ -30826,25 +30826,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="T45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="U45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="V45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="W45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="X45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="Y45" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
     </row>
     <row r="46">
@@ -30854,28 +30854,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="C46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="D46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="E46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="F46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="G46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="H46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="I46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30902,28 +30902,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="S46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="T46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="U46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="V46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="W46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="X46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.28432397326695</v>
+        <v>53.28432397326699</v>
       </c>
     </row>
   </sheetData>
@@ -31755,10 +31755,10 @@
         <v>1.638122311969384</v>
       </c>
       <c r="H11" t="n">
-        <v>16.77642012745645</v>
+        <v>16.77642012745646</v>
       </c>
       <c r="I11" t="n">
-        <v>63.15371043219973</v>
+        <v>63.15371043219974</v>
       </c>
       <c r="J11" t="n">
         <v>139.0335835755116</v>
@@ -31776,7 +31776,7 @@
         <v>292.2942594304773</v>
       </c>
       <c r="O11" t="n">
-        <v>276.0051806908317</v>
+        <v>276.0051806908318</v>
       </c>
       <c r="P11" t="n">
         <v>235.5640361140875</v>
@@ -31788,10 +31788,10 @@
         <v>102.9007006792469</v>
       </c>
       <c r="S11" t="n">
-        <v>37.32871218400237</v>
+        <v>37.32871218400238</v>
       </c>
       <c r="T11" t="n">
-        <v>7.170880420645981</v>
+        <v>7.170880420645982</v>
       </c>
       <c r="U11" t="n">
         <v>0.1310497849575507</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8764727068239969</v>
+        <v>0.876472706823997</v>
       </c>
       <c r="H12" t="n">
-        <v>8.464881142221234</v>
+        <v>8.464881142221236</v>
       </c>
       <c r="I12" t="n">
         <v>30.17680152880867</v>
       </c>
       <c r="J12" t="n">
-        <v>82.80744990217421</v>
+        <v>82.80744990217423</v>
       </c>
       <c r="K12" t="n">
         <v>141.531121259382</v>
@@ -31849,13 +31849,13 @@
         <v>190.3060585584297</v>
       </c>
       <c r="M12" t="n">
-        <v>222.0781941807995</v>
+        <v>222.0781941807996</v>
       </c>
       <c r="N12" t="n">
-        <v>227.9559431664745</v>
+        <v>227.9559431664746</v>
       </c>
       <c r="O12" t="n">
-        <v>208.5351531889533</v>
+        <v>208.5351531889534</v>
       </c>
       <c r="P12" t="n">
         <v>167.3678452179964</v>
@@ -31864,7 +31864,7 @@
         <v>111.8809721903755</v>
       </c>
       <c r="R12" t="n">
-        <v>54.41819139386186</v>
+        <v>54.41819139386187</v>
       </c>
       <c r="S12" t="n">
         <v>16.28009611140186</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7348052747747916</v>
+        <v>0.7348052747747917</v>
       </c>
       <c r="H13" t="n">
-        <v>6.533086897543153</v>
+        <v>6.533086897543154</v>
       </c>
       <c r="I13" t="n">
-        <v>22.09759862686374</v>
+        <v>22.09759862686375</v>
       </c>
       <c r="J13" t="n">
-        <v>51.95073292657777</v>
+        <v>51.95073292657778</v>
       </c>
       <c r="K13" t="n">
-        <v>85.37101283292577</v>
+        <v>85.37101283292579</v>
       </c>
       <c r="L13" t="n">
-        <v>109.245504215154</v>
+        <v>109.2455042151541</v>
       </c>
       <c r="M13" t="n">
         <v>115.1840668449248</v>
@@ -31937,16 +31937,16 @@
         <v>103.8613855654406</v>
       </c>
       <c r="P13" t="n">
-        <v>88.87135796003477</v>
+        <v>88.87135796003479</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.52992169046006</v>
+        <v>61.52992169046007</v>
       </c>
       <c r="R13" t="n">
-        <v>33.03951717305562</v>
+        <v>33.03951717305563</v>
       </c>
       <c r="S13" t="n">
-        <v>12.80565192493886</v>
+        <v>12.80565192493887</v>
       </c>
       <c r="T13" t="n">
         <v>3.139622537674109</v>
@@ -31992,10 +31992,10 @@
         <v>1.638122311969384</v>
       </c>
       <c r="H14" t="n">
-        <v>16.77642012745645</v>
+        <v>16.77642012745646</v>
       </c>
       <c r="I14" t="n">
-        <v>63.15371043219973</v>
+        <v>63.15371043219974</v>
       </c>
       <c r="J14" t="n">
         <v>139.0335835755116</v>
@@ -32013,7 +32013,7 @@
         <v>292.2942594304773</v>
       </c>
       <c r="O14" t="n">
-        <v>276.0051806908317</v>
+        <v>276.0051806908318</v>
       </c>
       <c r="P14" t="n">
         <v>235.5640361140875</v>
@@ -32025,10 +32025,10 @@
         <v>102.9007006792469</v>
       </c>
       <c r="S14" t="n">
-        <v>37.32871218400237</v>
+        <v>37.32871218400238</v>
       </c>
       <c r="T14" t="n">
-        <v>7.170880420645981</v>
+        <v>7.170880420645982</v>
       </c>
       <c r="U14" t="n">
         <v>0.1310497849575507</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8764727068239969</v>
+        <v>0.876472706823997</v>
       </c>
       <c r="H15" t="n">
-        <v>8.464881142221234</v>
+        <v>8.464881142221236</v>
       </c>
       <c r="I15" t="n">
         <v>30.17680152880867</v>
       </c>
       <c r="J15" t="n">
-        <v>82.80744990217421</v>
+        <v>82.80744990217423</v>
       </c>
       <c r="K15" t="n">
         <v>141.531121259382</v>
@@ -32086,13 +32086,13 @@
         <v>190.3060585584297</v>
       </c>
       <c r="M15" t="n">
-        <v>222.0781941807995</v>
+        <v>222.0781941807996</v>
       </c>
       <c r="N15" t="n">
-        <v>227.9559431664745</v>
+        <v>227.9559431664746</v>
       </c>
       <c r="O15" t="n">
-        <v>208.5351531889533</v>
+        <v>208.5351531889534</v>
       </c>
       <c r="P15" t="n">
         <v>167.3678452179964</v>
@@ -32101,7 +32101,7 @@
         <v>111.8809721903755</v>
       </c>
       <c r="R15" t="n">
-        <v>54.41819139386186</v>
+        <v>54.41819139386187</v>
       </c>
       <c r="S15" t="n">
         <v>16.28009611140186</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7348052747747916</v>
+        <v>0.7348052747747917</v>
       </c>
       <c r="H16" t="n">
-        <v>6.533086897543153</v>
+        <v>6.533086897543154</v>
       </c>
       <c r="I16" t="n">
-        <v>22.09759862686374</v>
+        <v>22.09759862686375</v>
       </c>
       <c r="J16" t="n">
-        <v>51.95073292657777</v>
+        <v>51.95073292657778</v>
       </c>
       <c r="K16" t="n">
-        <v>85.37101283292577</v>
+        <v>85.37101283292579</v>
       </c>
       <c r="L16" t="n">
-        <v>109.245504215154</v>
+        <v>109.2455042151541</v>
       </c>
       <c r="M16" t="n">
         <v>115.1840668449248</v>
@@ -32174,16 +32174,16 @@
         <v>103.8613855654406</v>
       </c>
       <c r="P16" t="n">
-        <v>88.87135796003477</v>
+        <v>88.87135796003479</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.52992169046006</v>
+        <v>61.52992169046007</v>
       </c>
       <c r="R16" t="n">
-        <v>33.03951717305562</v>
+        <v>33.03951717305563</v>
       </c>
       <c r="S16" t="n">
-        <v>12.80565192493886</v>
+        <v>12.80565192493887</v>
       </c>
       <c r="T16" t="n">
         <v>3.139622537674109</v>
@@ -32229,10 +32229,10 @@
         <v>1.638122311969384</v>
       </c>
       <c r="H17" t="n">
-        <v>16.77642012745645</v>
+        <v>16.77642012745646</v>
       </c>
       <c r="I17" t="n">
-        <v>63.15371043219973</v>
+        <v>63.15371043219974</v>
       </c>
       <c r="J17" t="n">
         <v>139.0335835755116</v>
@@ -32250,7 +32250,7 @@
         <v>292.2942594304773</v>
       </c>
       <c r="O17" t="n">
-        <v>276.0051806908317</v>
+        <v>276.0051806908318</v>
       </c>
       <c r="P17" t="n">
         <v>235.5640361140875</v>
@@ -32262,10 +32262,10 @@
         <v>102.9007006792469</v>
       </c>
       <c r="S17" t="n">
-        <v>37.32871218400237</v>
+        <v>37.32871218400238</v>
       </c>
       <c r="T17" t="n">
-        <v>7.170880420645981</v>
+        <v>7.170880420645982</v>
       </c>
       <c r="U17" t="n">
         <v>0.1310497849575507</v>
@@ -32305,16 +32305,16 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8764727068239969</v>
+        <v>0.876472706823997</v>
       </c>
       <c r="H18" t="n">
-        <v>8.464881142221234</v>
+        <v>8.464881142221236</v>
       </c>
       <c r="I18" t="n">
         <v>30.17680152880867</v>
       </c>
       <c r="J18" t="n">
-        <v>82.80744990217421</v>
+        <v>82.80744990217423</v>
       </c>
       <c r="K18" t="n">
         <v>141.531121259382</v>
@@ -32323,13 +32323,13 @@
         <v>190.3060585584297</v>
       </c>
       <c r="M18" t="n">
-        <v>222.0781941807995</v>
+        <v>222.0781941807996</v>
       </c>
       <c r="N18" t="n">
-        <v>227.9559431664745</v>
+        <v>227.9559431664746</v>
       </c>
       <c r="O18" t="n">
-        <v>208.5351531889533</v>
+        <v>208.5351531889534</v>
       </c>
       <c r="P18" t="n">
         <v>167.3678452179964</v>
@@ -32338,7 +32338,7 @@
         <v>111.8809721903755</v>
       </c>
       <c r="R18" t="n">
-        <v>54.41819139386186</v>
+        <v>54.41819139386187</v>
       </c>
       <c r="S18" t="n">
         <v>16.28009611140186</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7348052747747916</v>
+        <v>0.7348052747747917</v>
       </c>
       <c r="H19" t="n">
-        <v>6.533086897543153</v>
+        <v>6.533086897543154</v>
       </c>
       <c r="I19" t="n">
-        <v>22.09759862686374</v>
+        <v>22.09759862686375</v>
       </c>
       <c r="J19" t="n">
-        <v>51.95073292657777</v>
+        <v>51.95073292657778</v>
       </c>
       <c r="K19" t="n">
-        <v>85.37101283292577</v>
+        <v>85.37101283292579</v>
       </c>
       <c r="L19" t="n">
-        <v>109.245504215154</v>
+        <v>109.2455042151541</v>
       </c>
       <c r="M19" t="n">
         <v>115.1840668449248</v>
@@ -32411,16 +32411,16 @@
         <v>103.8613855654406</v>
       </c>
       <c r="P19" t="n">
-        <v>88.87135796003477</v>
+        <v>88.87135796003479</v>
       </c>
       <c r="Q19" t="n">
-        <v>61.52992169046006</v>
+        <v>61.52992169046007</v>
       </c>
       <c r="R19" t="n">
-        <v>33.03951717305562</v>
+        <v>33.03951717305563</v>
       </c>
       <c r="S19" t="n">
-        <v>12.80565192493886</v>
+        <v>12.80565192493887</v>
       </c>
       <c r="T19" t="n">
         <v>3.139622537674109</v>
@@ -32466,10 +32466,10 @@
         <v>1.638122311969384</v>
       </c>
       <c r="H20" t="n">
-        <v>16.77642012745645</v>
+        <v>16.77642012745646</v>
       </c>
       <c r="I20" t="n">
-        <v>63.15371043219973</v>
+        <v>63.15371043219974</v>
       </c>
       <c r="J20" t="n">
         <v>139.0335835755116</v>
@@ -32487,7 +32487,7 @@
         <v>292.2942594304773</v>
       </c>
       <c r="O20" t="n">
-        <v>276.0051806908317</v>
+        <v>276.0051806908318</v>
       </c>
       <c r="P20" t="n">
         <v>235.5640361140875</v>
@@ -32499,10 +32499,10 @@
         <v>102.9007006792469</v>
       </c>
       <c r="S20" t="n">
-        <v>37.32871218400237</v>
+        <v>37.32871218400238</v>
       </c>
       <c r="T20" t="n">
-        <v>7.170880420645981</v>
+        <v>7.170880420645982</v>
       </c>
       <c r="U20" t="n">
         <v>0.1310497849575507</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8764727068239969</v>
+        <v>0.876472706823997</v>
       </c>
       <c r="H21" t="n">
-        <v>8.464881142221234</v>
+        <v>8.464881142221236</v>
       </c>
       <c r="I21" t="n">
         <v>30.17680152880867</v>
       </c>
       <c r="J21" t="n">
-        <v>82.80744990217421</v>
+        <v>82.80744990217423</v>
       </c>
       <c r="K21" t="n">
         <v>141.531121259382</v>
@@ -32560,13 +32560,13 @@
         <v>190.3060585584297</v>
       </c>
       <c r="M21" t="n">
-        <v>222.0781941807995</v>
+        <v>222.0781941807996</v>
       </c>
       <c r="N21" t="n">
-        <v>227.9559431664745</v>
+        <v>227.9559431664746</v>
       </c>
       <c r="O21" t="n">
-        <v>208.5351531889533</v>
+        <v>208.5351531889534</v>
       </c>
       <c r="P21" t="n">
         <v>167.3678452179964</v>
@@ -32575,7 +32575,7 @@
         <v>111.8809721903755</v>
       </c>
       <c r="R21" t="n">
-        <v>54.41819139386186</v>
+        <v>54.41819139386187</v>
       </c>
       <c r="S21" t="n">
         <v>16.28009611140186</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7348052747747916</v>
+        <v>0.7348052747747917</v>
       </c>
       <c r="H22" t="n">
-        <v>6.533086897543153</v>
+        <v>6.533086897543154</v>
       </c>
       <c r="I22" t="n">
-        <v>22.09759862686374</v>
+        <v>22.09759862686375</v>
       </c>
       <c r="J22" t="n">
-        <v>51.95073292657777</v>
+        <v>51.95073292657778</v>
       </c>
       <c r="K22" t="n">
-        <v>85.37101283292577</v>
+        <v>85.37101283292579</v>
       </c>
       <c r="L22" t="n">
-        <v>109.245504215154</v>
+        <v>109.2455042151541</v>
       </c>
       <c r="M22" t="n">
         <v>115.1840668449248</v>
@@ -32648,16 +32648,16 @@
         <v>103.8613855654406</v>
       </c>
       <c r="P22" t="n">
-        <v>88.87135796003477</v>
+        <v>88.87135796003479</v>
       </c>
       <c r="Q22" t="n">
-        <v>61.52992169046006</v>
+        <v>61.52992169046007</v>
       </c>
       <c r="R22" t="n">
-        <v>33.03951717305562</v>
+        <v>33.03951717305563</v>
       </c>
       <c r="S22" t="n">
-        <v>12.80565192493886</v>
+        <v>12.80565192493887</v>
       </c>
       <c r="T22" t="n">
         <v>3.139622537674109</v>
@@ -32703,10 +32703,10 @@
         <v>1.638122311969384</v>
       </c>
       <c r="H23" t="n">
-        <v>16.77642012745645</v>
+        <v>16.77642012745646</v>
       </c>
       <c r="I23" t="n">
-        <v>63.15371043219973</v>
+        <v>63.15371043219974</v>
       </c>
       <c r="J23" t="n">
         <v>139.0335835755116</v>
@@ -32724,7 +32724,7 @@
         <v>292.2942594304773</v>
       </c>
       <c r="O23" t="n">
-        <v>276.0051806908317</v>
+        <v>276.0051806908318</v>
       </c>
       <c r="P23" t="n">
         <v>235.5640361140875</v>
@@ -32736,10 +32736,10 @@
         <v>102.9007006792469</v>
       </c>
       <c r="S23" t="n">
-        <v>37.32871218400237</v>
+        <v>37.32871218400238</v>
       </c>
       <c r="T23" t="n">
-        <v>7.170880420645981</v>
+        <v>7.170880420645982</v>
       </c>
       <c r="U23" t="n">
         <v>0.1310497849575507</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8764727068239969</v>
+        <v>0.876472706823997</v>
       </c>
       <c r="H24" t="n">
-        <v>8.464881142221234</v>
+        <v>8.464881142221236</v>
       </c>
       <c r="I24" t="n">
         <v>30.17680152880867</v>
       </c>
       <c r="J24" t="n">
-        <v>82.80744990217421</v>
+        <v>82.80744990217423</v>
       </c>
       <c r="K24" t="n">
         <v>141.531121259382</v>
@@ -32797,13 +32797,13 @@
         <v>190.3060585584297</v>
       </c>
       <c r="M24" t="n">
-        <v>222.0781941807995</v>
+        <v>222.0781941807996</v>
       </c>
       <c r="N24" t="n">
-        <v>227.9559431664745</v>
+        <v>227.9559431664746</v>
       </c>
       <c r="O24" t="n">
-        <v>208.5351531889533</v>
+        <v>208.5351531889534</v>
       </c>
       <c r="P24" t="n">
         <v>167.3678452179964</v>
@@ -32812,7 +32812,7 @@
         <v>111.8809721903755</v>
       </c>
       <c r="R24" t="n">
-        <v>54.41819139386186</v>
+        <v>54.41819139386187</v>
       </c>
       <c r="S24" t="n">
         <v>16.28009611140186</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7348052747747916</v>
+        <v>0.7348052747747917</v>
       </c>
       <c r="H25" t="n">
-        <v>6.533086897543153</v>
+        <v>6.533086897543154</v>
       </c>
       <c r="I25" t="n">
-        <v>22.09759862686374</v>
+        <v>22.09759862686375</v>
       </c>
       <c r="J25" t="n">
-        <v>51.95073292657777</v>
+        <v>51.95073292657778</v>
       </c>
       <c r="K25" t="n">
-        <v>85.37101283292577</v>
+        <v>85.37101283292579</v>
       </c>
       <c r="L25" t="n">
-        <v>109.245504215154</v>
+        <v>109.2455042151541</v>
       </c>
       <c r="M25" t="n">
         <v>115.1840668449248</v>
@@ -32885,16 +32885,16 @@
         <v>103.8613855654406</v>
       </c>
       <c r="P25" t="n">
-        <v>88.87135796003477</v>
+        <v>88.87135796003479</v>
       </c>
       <c r="Q25" t="n">
-        <v>61.52992169046006</v>
+        <v>61.52992169046007</v>
       </c>
       <c r="R25" t="n">
-        <v>33.03951717305562</v>
+        <v>33.03951717305563</v>
       </c>
       <c r="S25" t="n">
-        <v>12.80565192493886</v>
+        <v>12.80565192493887</v>
       </c>
       <c r="T25" t="n">
         <v>3.139622537674109</v>
@@ -33177,10 +33177,10 @@
         <v>1.638122311969384</v>
       </c>
       <c r="H29" t="n">
-        <v>16.77642012745645</v>
+        <v>16.77642012745646</v>
       </c>
       <c r="I29" t="n">
-        <v>63.15371043219973</v>
+        <v>63.15371043219974</v>
       </c>
       <c r="J29" t="n">
         <v>139.0335835755116</v>
@@ -33198,7 +33198,7 @@
         <v>292.2942594304773</v>
       </c>
       <c r="O29" t="n">
-        <v>276.0051806908317</v>
+        <v>276.0051806908318</v>
       </c>
       <c r="P29" t="n">
         <v>235.5640361140875</v>
@@ -33210,10 +33210,10 @@
         <v>102.9007006792469</v>
       </c>
       <c r="S29" t="n">
-        <v>37.32871218400237</v>
+        <v>37.32871218400238</v>
       </c>
       <c r="T29" t="n">
-        <v>7.170880420645981</v>
+        <v>7.170880420645982</v>
       </c>
       <c r="U29" t="n">
         <v>0.1310497849575507</v>
@@ -33253,16 +33253,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8764727068239969</v>
+        <v>0.876472706823997</v>
       </c>
       <c r="H30" t="n">
-        <v>8.464881142221234</v>
+        <v>8.464881142221236</v>
       </c>
       <c r="I30" t="n">
         <v>30.17680152880867</v>
       </c>
       <c r="J30" t="n">
-        <v>82.80744990217421</v>
+        <v>82.80744990217423</v>
       </c>
       <c r="K30" t="n">
         <v>141.531121259382</v>
@@ -33271,13 +33271,13 @@
         <v>190.3060585584297</v>
       </c>
       <c r="M30" t="n">
-        <v>222.0781941807995</v>
+        <v>222.0781941807996</v>
       </c>
       <c r="N30" t="n">
-        <v>227.9559431664745</v>
+        <v>227.9559431664746</v>
       </c>
       <c r="O30" t="n">
-        <v>208.5351531889533</v>
+        <v>208.5351531889534</v>
       </c>
       <c r="P30" t="n">
         <v>167.3678452179964</v>
@@ -33286,7 +33286,7 @@
         <v>111.8809721903755</v>
       </c>
       <c r="R30" t="n">
-        <v>54.41819139386186</v>
+        <v>54.41819139386187</v>
       </c>
       <c r="S30" t="n">
         <v>16.28009611140186</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7348052747747916</v>
+        <v>0.7348052747747917</v>
       </c>
       <c r="H31" t="n">
-        <v>6.533086897543153</v>
+        <v>6.533086897543154</v>
       </c>
       <c r="I31" t="n">
-        <v>22.09759862686374</v>
+        <v>22.09759862686375</v>
       </c>
       <c r="J31" t="n">
-        <v>51.95073292657777</v>
+        <v>51.95073292657778</v>
       </c>
       <c r="K31" t="n">
-        <v>85.37101283292577</v>
+        <v>85.37101283292579</v>
       </c>
       <c r="L31" t="n">
-        <v>109.245504215154</v>
+        <v>109.2455042151541</v>
       </c>
       <c r="M31" t="n">
         <v>115.1840668449248</v>
@@ -33359,16 +33359,16 @@
         <v>103.8613855654406</v>
       </c>
       <c r="P31" t="n">
-        <v>88.87135796003477</v>
+        <v>88.87135796003479</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.52992169046006</v>
+        <v>61.52992169046007</v>
       </c>
       <c r="R31" t="n">
-        <v>33.03951717305562</v>
+        <v>33.03951717305563</v>
       </c>
       <c r="S31" t="n">
-        <v>12.80565192493886</v>
+        <v>12.80565192493887</v>
       </c>
       <c r="T31" t="n">
         <v>3.139622537674109</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.35374563316552</v>
+        <v>21.35374563316535</v>
       </c>
       <c r="K11" t="n">
-        <v>65.31689786193832</v>
+        <v>65.31689786193834</v>
       </c>
       <c r="L11" t="n">
         <v>105.2598170156171</v>
@@ -35424,13 +35424,13 @@
         <v>143.1757680926932</v>
       </c>
       <c r="O11" t="n">
-        <v>126.4413432667353</v>
+        <v>126.4413432667354</v>
       </c>
       <c r="P11" t="n">
-        <v>85.26258887316231</v>
+        <v>85.26258887316234</v>
       </c>
       <c r="Q11" t="n">
-        <v>32.40008239829174</v>
+        <v>32.40008239829177</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3629925688408662</v>
+        <v>0.3629925688408804</v>
       </c>
       <c r="K12" t="n">
-        <v>51.93418592604864</v>
+        <v>51.93418592604867</v>
       </c>
       <c r="L12" t="n">
         <v>100.2457117015115</v>
       </c>
       <c r="M12" t="n">
-        <v>166.4466671799651</v>
+        <v>129.6910721314877</v>
       </c>
       <c r="N12" t="n">
+        <v>142.5838303123079</v>
+      </c>
+      <c r="O12" t="n">
         <v>181.1106848458969</v>
       </c>
-      <c r="O12" t="n">
-        <v>115.8475943000644</v>
-      </c>
       <c r="P12" t="n">
-        <v>80.28448039868175</v>
+        <v>90.30383943491557</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.89281903446148</v>
+        <v>20.8928190344615</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>21.8762454544187</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.512395022077783</v>
+        <v>1.512395022077797</v>
       </c>
       <c r="L13" t="n">
-        <v>181.1106848458969</v>
+        <v>172.280686395702</v>
       </c>
       <c r="M13" t="n">
         <v>181.1106848458969</v>
       </c>
       <c r="N13" t="n">
-        <v>29.44964328199913</v>
+        <v>181.1106848458969</v>
       </c>
       <c r="O13" t="n">
-        <v>55.96811195867171</v>
+        <v>181.1106848458969</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1106848458969</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.98668570061254</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21.35374563316584</v>
+        <v>21.35374563316554</v>
       </c>
       <c r="K14" t="n">
-        <v>65.31689786193832</v>
+        <v>65.31689786193834</v>
       </c>
       <c r="L14" t="n">
         <v>105.2598170156171</v>
@@ -35661,13 +35661,13 @@
         <v>143.1757680926932</v>
       </c>
       <c r="O14" t="n">
-        <v>126.4413432667353</v>
+        <v>126.4413432667354</v>
       </c>
       <c r="P14" t="n">
-        <v>85.26258887316231</v>
+        <v>85.26258887316234</v>
       </c>
       <c r="Q14" t="n">
-        <v>32.40008239829174</v>
+        <v>32.40008239829177</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3629925688408662</v>
+        <v>75.6454421509073</v>
       </c>
       <c r="K15" t="n">
-        <v>127.2166355081153</v>
+        <v>51.93418592604867</v>
       </c>
       <c r="L15" t="n">
         <v>100.2457117015115</v>
       </c>
       <c r="M15" t="n">
-        <v>129.6910721314876</v>
+        <v>129.6910721314877</v>
       </c>
       <c r="N15" t="n">
         <v>142.5838303123079</v>
       </c>
       <c r="O15" t="n">
-        <v>115.8475943000644</v>
+        <v>115.8475943000645</v>
       </c>
       <c r="P15" t="n">
-        <v>80.28448039868175</v>
+        <v>80.28448039868178</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.89281903446148</v>
+        <v>20.8928190344615</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>168.0326705197357</v>
+        <v>1.512395022077797</v>
       </c>
       <c r="L16" t="n">
-        <v>21.57046463234916</v>
+        <v>181.1106848458969</v>
       </c>
       <c r="M16" t="n">
         <v>181.1106848458969</v>
@@ -35819,13 +35819,13 @@
         <v>181.1106848458969</v>
       </c>
       <c r="O16" t="n">
-        <v>13.86463557174278</v>
+        <v>13.8646355717428</v>
       </c>
       <c r="P16" t="n">
-        <v>86.44930983923656</v>
+        <v>158.4160508239592</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.98668570061254</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>84.45217415594925</v>
+        <v>84.45217415595002</v>
       </c>
       <c r="K17" t="n">
-        <v>65.31689786193832</v>
+        <v>65.31689786193834</v>
       </c>
       <c r="L17" t="n">
         <v>105.2598170156171</v>
@@ -35898,13 +35898,13 @@
         <v>143.1757680926932</v>
       </c>
       <c r="O17" t="n">
-        <v>126.4413432667353</v>
+        <v>126.4413432667354</v>
       </c>
       <c r="P17" t="n">
-        <v>85.26258887316231</v>
+        <v>85.26258887316234</v>
       </c>
       <c r="Q17" t="n">
-        <v>32.40008239829174</v>
+        <v>32.40008239829177</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>16.92625840653162</v>
+        <v>21.9820937168959</v>
       </c>
       <c r="K18" t="n">
-        <v>51.93418592604864</v>
+        <v>51.93418592604867</v>
       </c>
       <c r="L18" t="n">
         <v>100.2457117015115</v>
       </c>
       <c r="M18" t="n">
-        <v>197.0462573554775</v>
+        <v>129.6910721314877</v>
       </c>
       <c r="N18" t="n">
-        <v>197.0462573554775</v>
+        <v>142.5838303123079</v>
       </c>
       <c r="O18" t="n">
-        <v>115.8475943000644</v>
+        <v>115.8475943000645</v>
       </c>
       <c r="P18" t="n">
-        <v>80.28448039868175</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.89281903446148</v>
+        <v>20.8928190344615</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>168.0326705197357</v>
+        <v>1.512395022077797</v>
       </c>
       <c r="L19" t="n">
-        <v>197.0462573554775</v>
+        <v>187.5723973897443</v>
       </c>
       <c r="M19" t="n">
-        <v>24.88230727898156</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="N19" t="n">
-        <v>29.44964328199913</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="O19" t="n">
-        <v>197.0462573554775</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="P19" t="n">
-        <v>98.77974298597029</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.98668570061254</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>84.45217415594925</v>
+        <v>84.45217415595002</v>
       </c>
       <c r="K20" t="n">
-        <v>65.31689786193832</v>
+        <v>65.31689786193834</v>
       </c>
       <c r="L20" t="n">
         <v>105.2598170156171</v>
@@ -36135,13 +36135,13 @@
         <v>143.1757680926932</v>
       </c>
       <c r="O20" t="n">
-        <v>126.4413432667353</v>
+        <v>126.4413432667354</v>
       </c>
       <c r="P20" t="n">
-        <v>85.26258887316231</v>
+        <v>85.26258887316234</v>
       </c>
       <c r="Q20" t="n">
-        <v>32.40008239829174</v>
+        <v>32.40008239829177</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3629925688408662</v>
+        <v>0.3629925688408804</v>
       </c>
       <c r="K21" t="n">
-        <v>51.93418592604864</v>
+        <v>51.93418592604867</v>
       </c>
       <c r="L21" t="n">
         <v>100.2457117015115</v>
       </c>
       <c r="M21" t="n">
-        <v>129.6910721314876</v>
+        <v>129.6910721314877</v>
       </c>
       <c r="N21" t="n">
-        <v>197.0462573554775</v>
+        <v>142.5838303123079</v>
       </c>
       <c r="O21" t="n">
-        <v>115.8475943000644</v>
+        <v>115.8475943000645</v>
       </c>
       <c r="P21" t="n">
-        <v>80.28448039868175</v>
+        <v>187.925039780587</v>
       </c>
       <c r="Q21" t="n">
-        <v>74.07095137319627</v>
+        <v>20.8928190344615</v>
       </c>
       <c r="R21" t="n">
-        <v>30.74031872294576</v>
+        <v>30.74031872294577</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>21.87624545441871</v>
       </c>
       <c r="K22" t="n">
-        <v>102.5276420788601</v>
+        <v>80.65139662444167</v>
       </c>
       <c r="L22" t="n">
-        <v>21.57046463234916</v>
+        <v>21.57046463234917</v>
       </c>
       <c r="M22" t="n">
-        <v>197.0462573554775</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="N22" t="n">
-        <v>197.0462573554775</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="O22" t="n">
-        <v>197.0462573554775</v>
+        <v>197.0462573554777</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.98668570061254</v>
+        <v>64.98668570061255</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>21.35374563316552</v>
+        <v>285.1444653016006</v>
       </c>
       <c r="K23" t="n">
-        <v>65.31689786193832</v>
+        <v>570.0076254150074</v>
       </c>
       <c r="L23" t="n">
         <v>570.0076254150074</v>
       </c>
       <c r="M23" t="n">
-        <v>342.6436995205701</v>
+        <v>137.914892813867</v>
       </c>
       <c r="N23" t="n">
-        <v>570.0076254150074</v>
+        <v>143.1757680926932</v>
       </c>
       <c r="O23" t="n">
-        <v>570.0076254150074</v>
+        <v>126.4413432667354</v>
       </c>
       <c r="P23" t="n">
-        <v>85.26258887316231</v>
+        <v>85.26258887316234</v>
       </c>
       <c r="Q23" t="n">
-        <v>32.40008239829174</v>
+        <v>339.0455813540771</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3629925688408662</v>
+        <v>197.0650076998787</v>
       </c>
       <c r="K24" t="n">
-        <v>464.4999556656713</v>
+        <v>51.93418592604867</v>
       </c>
       <c r="L24" t="n">
         <v>570.0076254150074</v>
       </c>
       <c r="M24" t="n">
-        <v>129.6910721314876</v>
+        <v>129.6910721314877</v>
       </c>
       <c r="N24" t="n">
         <v>142.5838303123079</v>
       </c>
       <c r="O24" t="n">
-        <v>115.8475943000644</v>
+        <v>570.0076254150074</v>
       </c>
       <c r="P24" t="n">
-        <v>485.3934322363839</v>
+        <v>247.0971557300267</v>
       </c>
       <c r="Q24" t="n">
         <v>348.6133879023861</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>21.8762454544187</v>
+        <v>21.87624545441871</v>
       </c>
       <c r="K25" t="n">
         <v>168.0326705197357</v>
       </c>
       <c r="L25" t="n">
-        <v>275.030999037174</v>
+        <v>275.0309990371741</v>
       </c>
       <c r="M25" t="n">
         <v>303.3573782977168</v>
@@ -36536,7 +36536,7 @@
         <v>209.9583940979929</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.98668570061254</v>
+        <v>64.98668570061255</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>21.35374563316552</v>
+        <v>285.1444653016006</v>
       </c>
       <c r="K26" t="n">
-        <v>65.31689786193832</v>
+        <v>570.0076254150074</v>
       </c>
       <c r="L26" t="n">
-        <v>105.2598170156171</v>
+        <v>570.0076254150074</v>
       </c>
       <c r="M26" t="n">
-        <v>570.0076254150074</v>
+        <v>137.914892813867</v>
       </c>
       <c r="N26" t="n">
-        <v>570.0076254150074</v>
+        <v>143.1757680926932</v>
       </c>
       <c r="O26" t="n">
-        <v>570.0076254150074</v>
+        <v>126.4413432667353</v>
       </c>
       <c r="P26" t="n">
-        <v>322.6464713781155</v>
+        <v>85.26258887316231</v>
       </c>
       <c r="Q26" t="n">
-        <v>32.40008239829174</v>
+        <v>273.7578652521635</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.28771610191362</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3629925688408662</v>
+        <v>197.0650076998786</v>
       </c>
       <c r="K27" t="n">
-        <v>51.93418592604864</v>
+        <v>464.4999556656713</v>
       </c>
       <c r="L27" t="n">
-        <v>100.2457117015115</v>
+        <v>570.0076254150074</v>
       </c>
       <c r="M27" t="n">
-        <v>373.5413050562657</v>
+        <v>176.0954326897509</v>
       </c>
       <c r="N27" t="n">
-        <v>570.0076254150074</v>
+        <v>142.5838303123079</v>
       </c>
       <c r="O27" t="n">
-        <v>570.0076254150074</v>
+        <v>115.8475943000644</v>
       </c>
       <c r="P27" t="n">
         <v>570.0076254150074</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>82.63234102194482</v>
+        <v>82.63234102194478</v>
       </c>
       <c r="K28" t="n">
-        <v>228.7887660872619</v>
+        <v>228.7887660872618</v>
       </c>
       <c r="L28" t="n">
         <v>335.7870946047001</v>
       </c>
       <c r="M28" t="n">
-        <v>364.1134738652429</v>
+        <v>364.1134738652428</v>
       </c>
       <c r="N28" t="n">
         <v>358.2413771268856</v>
       </c>
       <c r="O28" t="n">
-        <v>328.9657306700456</v>
+        <v>328.9657306700455</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7144896655191</v>
+        <v>270.714489665519</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.7427812681387</v>
+        <v>125.7427812681386</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>21.35374563316552</v>
+        <v>285.1444653016006</v>
       </c>
       <c r="K29" t="n">
-        <v>65.31689786193832</v>
+        <v>65.31689786193834</v>
       </c>
       <c r="L29" t="n">
-        <v>105.2598170156171</v>
+        <v>570.0076254150074</v>
       </c>
       <c r="M29" t="n">
-        <v>410.8924063885959</v>
+        <v>137.914892813867</v>
       </c>
       <c r="N29" t="n">
-        <v>570.0076254150074</v>
+        <v>143.1757680926932</v>
       </c>
       <c r="O29" t="n">
-        <v>570.0076254150074</v>
+        <v>541.2784682442249</v>
       </c>
       <c r="P29" t="n">
-        <v>85.26258887316231</v>
+        <v>85.26258887316234</v>
       </c>
       <c r="Q29" t="n">
-        <v>363.611467827743</v>
+        <v>363.6114678277431</v>
       </c>
       <c r="R29" t="n">
-        <v>65.28771610191362</v>
+        <v>65.28771610191363</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3629925688408662</v>
+        <v>0.3629925688408804</v>
       </c>
       <c r="K30" t="n">
-        <v>51.93418592604864</v>
+        <v>51.93418592604867</v>
       </c>
       <c r="L30" t="n">
         <v>100.2457117015115</v>
       </c>
       <c r="M30" t="n">
-        <v>342.800986333319</v>
+        <v>570.0076254150074</v>
       </c>
       <c r="N30" t="n">
         <v>570.0076254150074</v>
       </c>
       <c r="O30" t="n">
-        <v>570.0076254150074</v>
+        <v>535.5438812046659</v>
       </c>
       <c r="P30" t="n">
-        <v>570.0076254150074</v>
+        <v>80.28448039868178</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.89281903446148</v>
+        <v>348.6133879023861</v>
       </c>
       <c r="R30" t="n">
-        <v>30.74031872294576</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>82.63234102194481</v>
+        <v>82.63234102194482</v>
       </c>
       <c r="K31" t="n">
         <v>228.7887660872618</v>
       </c>
       <c r="L31" t="n">
-        <v>335.7870946047001</v>
+        <v>335.7870946047002</v>
       </c>
       <c r="M31" t="n">
         <v>364.1134738652429</v>
       </c>
       <c r="N31" t="n">
-        <v>358.2413771268856</v>
+        <v>358.2413771268857</v>
       </c>
       <c r="O31" t="n">
         <v>328.9657306700456</v>
@@ -37083,13 +37083,13 @@
         <v>570.0076254150074</v>
       </c>
       <c r="O32" t="n">
-        <v>570.0076254150074</v>
+        <v>126.4413432667354</v>
       </c>
       <c r="P32" t="n">
-        <v>257.3587552762019</v>
+        <v>369.7136519950225</v>
       </c>
       <c r="Q32" t="n">
-        <v>32.40008239829177</v>
+        <v>363.6114678277431</v>
       </c>
       <c r="R32" t="n">
         <v>65.28771610191363</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.3629925688408804</v>
+        <v>197.0650076998787</v>
       </c>
       <c r="K33" t="n">
         <v>51.93418592604867</v>
       </c>
       <c r="L33" t="n">
-        <v>393.5025363590952</v>
+        <v>570.0076254150074</v>
       </c>
       <c r="M33" t="n">
-        <v>570.0076254150074</v>
+        <v>134.5011713144306</v>
       </c>
       <c r="N33" t="n">
-        <v>570.0076254150074</v>
+        <v>142.5838303123079</v>
       </c>
       <c r="O33" t="n">
         <v>570.0076254150074</v>
       </c>
       <c r="P33" t="n">
-        <v>80.28448039868178</v>
+        <v>570.0076254150074</v>
       </c>
       <c r="Q33" t="n">
         <v>20.8928190344615</v>
@@ -37314,19 +37314,19 @@
         <v>105.2598170156171</v>
       </c>
       <c r="M35" t="n">
-        <v>147.5182675942761</v>
+        <v>137.914892813867</v>
       </c>
       <c r="N35" t="n">
-        <v>388.8969405691105</v>
+        <v>143.1757680926932</v>
       </c>
       <c r="O35" t="n">
         <v>126.4413432667354</v>
       </c>
       <c r="P35" t="n">
-        <v>388.8969405691105</v>
+        <v>313.0101023964851</v>
       </c>
       <c r="Q35" t="n">
-        <v>32.40008239829177</v>
+        <v>363.6114678277431</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3629925688408804</v>
+        <v>197.0650076998787</v>
       </c>
       <c r="K36" t="n">
-        <v>51.93418592604867</v>
+        <v>388.8969405691105</v>
       </c>
       <c r="L36" t="n">
-        <v>100.2457117015115</v>
+        <v>388.8969405691105</v>
       </c>
       <c r="M36" t="n">
-        <v>129.6910721314877</v>
+        <v>174.6668229701188</v>
       </c>
       <c r="N36" t="n">
         <v>142.5838303123079</v>
       </c>
       <c r="O36" t="n">
-        <v>388.8969405691105</v>
+        <v>115.8475943000645</v>
       </c>
       <c r="P36" t="n">
-        <v>377.5466334649869</v>
+        <v>80.28448039868178</v>
       </c>
       <c r="Q36" t="n">
-        <v>348.6133879023861</v>
+        <v>20.8928190344615</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>30.74031872294577</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>17.80039596218145</v>
       </c>
       <c r="K37" t="n">
         <v>168.0326705197357</v>
       </c>
       <c r="L37" t="n">
-        <v>227.8447092987432</v>
+        <v>275.0309990371741</v>
       </c>
       <c r="M37" t="n">
         <v>303.3573782977168</v>
@@ -37484,7 +37484,7 @@
         <v>209.9583940979929</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.98668570061255</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>285.1444653016006</v>
       </c>
       <c r="K38" t="n">
-        <v>65.31689786193834</v>
+        <v>388.8969405691107</v>
       </c>
       <c r="L38" t="n">
-        <v>105.2598170156171</v>
+        <v>340.6386732612198</v>
       </c>
       <c r="M38" t="n">
-        <v>388.8969405691105</v>
+        <v>137.914892813867</v>
       </c>
       <c r="N38" t="n">
-        <v>388.8969405691105</v>
+        <v>143.1757680926932</v>
       </c>
       <c r="O38" t="n">
-        <v>188.6970219878492</v>
+        <v>126.4413432667354</v>
       </c>
       <c r="P38" t="n">
         <v>85.26258887316234</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3629925688408804</v>
+        <v>197.0650076998787</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8969405691105</v>
+        <v>86.19089123698818</v>
       </c>
       <c r="L39" t="n">
         <v>100.2457117015115</v>
       </c>
       <c r="M39" t="n">
-        <v>388.8969405691105</v>
+        <v>129.6910721314877</v>
       </c>
       <c r="N39" t="n">
         <v>142.5838303123079</v>
@@ -37639,13 +37639,13 @@
         <v>115.8475943000645</v>
       </c>
       <c r="P39" t="n">
-        <v>80.28448039868178</v>
+        <v>388.8969405691107</v>
       </c>
       <c r="Q39" t="n">
-        <v>322.7562641570525</v>
+        <v>348.6133879023861</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>30.74031872294577</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>21.87624545441871</v>
       </c>
       <c r="K40" t="n">
         <v>168.0326705197357</v>
@@ -37709,7 +37709,7 @@
         <v>275.0309990371741</v>
       </c>
       <c r="M40" t="n">
-        <v>256.1710885592859</v>
+        <v>303.3573782977168</v>
       </c>
       <c r="N40" t="n">
         <v>297.4852815593595</v>
@@ -37718,10 +37718,10 @@
         <v>268.2096351025194</v>
       </c>
       <c r="P40" t="n">
-        <v>209.9583940979929</v>
+        <v>205.8825446057566</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.98668570061255</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>21.35374563316554</v>
       </c>
       <c r="K41" t="n">
-        <v>65.31689786193834</v>
+        <v>258.7102272852496</v>
       </c>
       <c r="L41" t="n">
         <v>105.2598170156171</v>
@@ -37791,19 +37791,19 @@
         <v>372.9613680595299</v>
       </c>
       <c r="N41" t="n">
-        <v>372.9613680595299</v>
+        <v>143.1757680926932</v>
       </c>
       <c r="O41" t="n">
-        <v>372.9613680595299</v>
+        <v>126.4413432667354</v>
       </c>
       <c r="P41" t="n">
         <v>85.26258887316234</v>
       </c>
       <c r="Q41" t="n">
-        <v>32.40008239829177</v>
+        <v>363.6114678277431</v>
       </c>
       <c r="R41" t="n">
-        <v>48.29909009313154</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>372.9613680595299</v>
       </c>
       <c r="L42" t="n">
-        <v>372.9613680595299</v>
+        <v>100.2457117015115</v>
       </c>
       <c r="M42" t="n">
-        <v>143.4395394664964</v>
+        <v>129.6910721314877</v>
       </c>
       <c r="N42" t="n">
         <v>142.5838303123079</v>
@@ -37876,7 +37876,7 @@
         <v>115.8475943000645</v>
       </c>
       <c r="P42" t="n">
-        <v>80.28448039868178</v>
+        <v>366.7486040917088</v>
       </c>
       <c r="Q42" t="n">
         <v>20.8928190344615</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>21.87624545441871</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>168.0326705197357</v>
       </c>
       <c r="L43" t="n">
-        <v>142.8700353215408</v>
+        <v>275.0309990371741</v>
       </c>
       <c r="M43" t="n">
         <v>303.3573782977168</v>
       </c>
       <c r="N43" t="n">
-        <v>297.4852815593595</v>
+        <v>252.1872489987572</v>
       </c>
       <c r="O43" t="n">
         <v>268.2096351025194</v>
@@ -37958,7 +37958,7 @@
         <v>209.9583940979929</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.98668570061255</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>21.35374563316554</v>
+        <v>285.1444653016006</v>
       </c>
       <c r="K44" t="n">
-        <v>372.9613680595299</v>
+        <v>164.6782667605631</v>
       </c>
       <c r="L44" t="n">
         <v>105.2598170156171</v>
       </c>
       <c r="M44" t="n">
-        <v>372.9613680595299</v>
+        <v>137.914892813867</v>
       </c>
       <c r="N44" t="n">
-        <v>360.1360127478646</v>
+        <v>143.1757680926932</v>
       </c>
       <c r="O44" t="n">
         <v>126.4413432667354</v>
@@ -38037,10 +38037,10 @@
         <v>85.26258887316234</v>
       </c>
       <c r="Q44" t="n">
-        <v>32.40008239829177</v>
+        <v>363.6114678277431</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.28771610191363</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>197.0650076998787</v>
       </c>
       <c r="K45" t="n">
-        <v>51.93418592604867</v>
+        <v>132.0677038603558</v>
       </c>
       <c r="L45" t="n">
         <v>100.2457117015115</v>
@@ -38107,19 +38107,19 @@
         <v>129.6910721314877</v>
       </c>
       <c r="N45" t="n">
-        <v>200.2844747185029</v>
+        <v>372.9613680595298</v>
       </c>
       <c r="O45" t="n">
-        <v>372.9613680595299</v>
+        <v>115.8475943000645</v>
       </c>
       <c r="P45" t="n">
-        <v>372.9613680595299</v>
+        <v>80.28448039868178</v>
       </c>
       <c r="Q45" t="n">
-        <v>20.8928190344615</v>
+        <v>348.6133879023861</v>
       </c>
       <c r="R45" t="n">
-        <v>30.74031872294577</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38189,10 +38189,10 @@
         <v>297.4852815593595</v>
       </c>
       <c r="O46" t="n">
-        <v>157.9249168413048</v>
+        <v>268.2096351025194</v>
       </c>
       <c r="P46" t="n">
-        <v>209.9583940979929</v>
+        <v>99.67367583677776</v>
       </c>
       <c r="Q46" t="n">
         <v>64.98668570061255</v>
